--- a/data/results/results_final.xlsx
+++ b/data/results/results_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoavz\GitHub\APPETITE\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB3C60D-6893-432F-B54E-03516070C08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73015420-857B-44EB-A799-3BDFD3326378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_results" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="279">
   <si>
     <t>after size</t>
   </si>
@@ -876,9 +876,6 @@
   </si>
   <si>
     <t>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase</t>
   </si>
 </sst>
 </file>
@@ -6156,7 +6153,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31781,7 +31778,7 @@
     <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL accuracy increase" fld="264" baseField="0" baseItem="0"/>
     <dataField name="סכום של average Fuzzy_Participation_Confidence_STAT_BARINEL_Features accuracy increase" fld="265" baseField="0" baseItem="0"/>
     <dataField name="סכום של average Fuzzy_Error_Confidence_STAT_BARINEL_Features accuracy increase" fld="266" baseField="0" baseItem="0"/>
-    <dataField name=" Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase" fld="267" baseField="0" baseItem="0"/>
+    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase" fld="267" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="198">
     <chartFormat chart="0" format="0" series="1">
@@ -34873,7 +34870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GS67"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -75423,7 +75420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="BK1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BN4" sqref="BN4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -75705,7 +75704,7 @@
         <v>272</v>
       </c>
       <c r="BN4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">

--- a/data/results/results_final.xlsx
+++ b/data/results/results_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoavz\GitHub\APPETITE\data\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-yzelinger\GitHub\APPETITE\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73015420-857B-44EB-A799-3BDFD3326378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA180EA-4784-4BD2-B485-959B18B6C87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="283">
   <si>
     <t>after size</t>
   </si>
@@ -671,193 +671,7 @@
     <t>סכום של average before after retrain accuracy increase</t>
   </si>
   <si>
-    <t>סכום של average Regular_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
     <t>סכום של average STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_STAT_SFLDT accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Regular_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average STAT_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_STAT_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_STAT_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Confidence_STAT_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_STAT_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Participation_Confidence_STAT_BARINEL_Features accuracy increase</t>
-  </si>
-  <si>
-    <t>סכום של average Fuzzy_Error_Confidence_STAT_BARINEL_Features accuracy increase</t>
   </si>
   <si>
     <t>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase</t>
@@ -875,7 +689,205 @@
     <t>סכום של average STAT_SFLDT wasted effort</t>
   </si>
   <si>
-    <t>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort</t>
+    <t xml:space="preserve"> after retrain accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> before after retrain accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Regular_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_STAT_SFLDT accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Regular_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Error_Confidence_STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence_STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Error_Confidence_STAT_BARINEL accuracy increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuzzy_Participation_Confidence_STAT_BARINEL_Features accuracy increase</t>
+  </si>
+  <si>
+    <t>Sum of average Fuzzy_Participation_Confidence_STAT_BARINEL_Features wasted effort</t>
   </si>
 </sst>
 </file>
@@ -886,7 +898,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -961,7 +973,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2578,7 +2590,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average after retrain accuracy increase</c:v>
+                  <c:v> after retrain accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2599,7 +2611,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2631,7 +2643,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average before after retrain accuracy increase</c:v>
+                  <c:v> before after retrain accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2652,7 +2664,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2684,7 +2696,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Regular_SFLDT accuracy increase</c:v>
+                  <c:v> Regular_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2705,7 +2717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2737,7 +2749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2758,7 +2770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2790,7 +2802,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2811,7 +2823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2843,7 +2855,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average SFLDT_Features accuracy increase</c:v>
+                  <c:v> SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2864,7 +2876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2896,7 +2908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_SFLDT accuracy increase</c:v>
+                  <c:v> Confidence_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2919,7 +2931,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2951,7 +2963,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2974,7 +2986,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3006,7 +3018,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3029,7 +3041,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3061,7 +3073,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3084,7 +3096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3116,7 +3128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3139,7 +3151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3171,7 +3183,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3194,7 +3206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3226,7 +3238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Confidence_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3250,7 +3262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3282,7 +3294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3306,7 +3318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3338,7 +3350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3362,7 +3374,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3394,7 +3406,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3418,7 +3430,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3450,7 +3462,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3474,7 +3486,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3506,7 +3518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3530,7 +3542,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3562,7 +3574,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average STAT_SFLDT accuracy increase</c:v>
+                  <c:v> STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3585,7 +3597,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3617,7 +3629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_STAT_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3640,7 +3652,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3672,7 +3684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_STAT_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3695,7 +3707,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3727,7 +3739,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3750,7 +3762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3782,7 +3794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_STAT_SFLDT accuracy increase</c:v>
+                  <c:v> Confidence_STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3805,7 +3817,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3837,7 +3849,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_STAT_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3860,7 +3872,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3892,7 +3904,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3916,7 +3928,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3948,7 +3960,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3972,7 +3984,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4004,7 +4016,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_STAT_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4028,7 +4040,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4060,7 +4072,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_STAT_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4084,7 +4096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4116,7 +4128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Confidence_STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4140,7 +4152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4172,7 +4184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4196,7 +4208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4228,7 +4240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_STAT_SFLDT accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_STAT_SFLDT accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4251,7 +4263,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4283,7 +4295,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4306,7 +4318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4338,7 +4350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4361,7 +4373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4393,7 +4405,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4416,7 +4428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4448,7 +4460,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Regular_BARINEL accuracy increase</c:v>
+                  <c:v> Regular_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4471,7 +4483,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4503,7 +4515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4526,7 +4538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4558,7 +4570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4582,7 +4594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4614,7 +4626,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average BARINEL_Features accuracy increase</c:v>
+                  <c:v> BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4638,7 +4650,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4670,7 +4682,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_BARINEL accuracy increase</c:v>
+                  <c:v> Confidence_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4694,7 +4706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4726,7 +4738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4750,7 +4762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4782,7 +4794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4806,7 +4818,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4838,7 +4850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4862,7 +4874,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4894,7 +4906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4917,7 +4929,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4949,7 +4961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4972,7 +4984,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5004,7 +5016,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Confidence_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5027,7 +5039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5059,7 +5071,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5082,7 +5094,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5114,7 +5126,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5137,7 +5149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5169,7 +5181,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5192,7 +5204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5224,7 +5236,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5248,7 +5260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5280,7 +5292,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5304,7 +5316,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5336,7 +5348,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average STAT_BARINEL accuracy increase</c:v>
+                  <c:v> STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5360,7 +5372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5392,7 +5404,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_STAT_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5416,7 +5428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5448,7 +5460,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_STAT_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5472,7 +5484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5504,7 +5516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5528,7 +5540,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5560,7 +5572,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_STAT_BARINEL accuracy increase</c:v>
+                  <c:v> Confidence_STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5581,7 +5593,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5613,7 +5625,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_STAT_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5634,7 +5646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5666,7 +5678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5687,7 +5699,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5719,7 +5731,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5740,7 +5752,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5772,7 +5784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_STAT_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5793,7 +5805,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5825,7 +5837,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_STAT_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5846,7 +5858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5878,7 +5890,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Confidence_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Confidence_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5901,7 +5913,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5933,7 +5945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5956,7 +5968,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5988,7 +6000,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_STAT_BARINEL accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6011,7 +6023,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6043,7 +6055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6066,7 +6078,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6098,7 +6110,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Error_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Error_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6121,7 +6133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6153,7 +6165,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
+                  <c:v> Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6176,7 +6188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6366,7 +6378,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9116,7 +9128,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11866,7 +11878,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12933,7 +12945,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -15677,7 +15689,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -15747,6 +15759,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -15784,7 +15852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15816,7 +15884,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort</c:v>
+                  <c:v>Sum of average Fuzzy_Participation_Confidence_STAT_BARINEL_Features wasted effort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15837,7 +15905,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15849,14 +15917,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.186500888099467</c:v>
+                  <c:v>2.421466632834306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000043-38EA-4021-BCB7-877D080F8C9A}"/>
+              <c16:uniqueId val="{00000001-CEF3-4943-80F6-3E47240C5CDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15928,6 +15996,7 @@
         <c:axId val="1449080015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17484,63 +17553,63 @@
     <cacheField name="average Confidence_SFLDT wasted effort" numFmtId="0" formula="'Confidence_SFLDT wasted effort'/count" databaseField="0"/>
     <cacheField name="average Fuzzy_Participation_Error_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_SFLDT wasted effort'/count" databaseField="0"/>
     <cacheField name="average Fuzzy_Participation_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_SFLDT_Features wasted effort'/count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Confidence_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average STAT_SFLDT wasted effort" numFmtId="0" formula="'STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Confidence_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Confidence_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Regular_BARINEL wasted effort" numFmtId="0" formula="'Regular_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average BARINEL_Features wasted effort" numFmtId="0" formula="'BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Confidence_BARINEL wasted effort" numFmtId="0" formula="'Confidence_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Confidence_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average STAT_BARINEL wasted effort" numFmtId="0" formula="'STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Confidence_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Confidence_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Error_Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="average Fuzzy_Participation_Error_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT wasted effort' /count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Confidence_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average STAT_SFLDT wasted effort" numFmtId="0" formula="'STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Confidence_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Confidence_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Regular_BARINEL wasted effort" numFmtId="0" formula="'Regular_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average BARINEL_Features wasted effort" numFmtId="0" formula="'BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Confidence_BARINEL wasted effort" numFmtId="0" formula="'Confidence_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Confidence_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average STAT_BARINEL wasted effort" numFmtId="0" formula="'STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Confidence_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Confidence_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_BARINEL wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Error_Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Error_Confidence_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Confidence_BARINEL_Features wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Confidence_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="average Fuzzy_Participation_Error_STAT_SFLDT wasted effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT wasted effort'/count" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -31157,7 +31226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EFE01F4F-D71B-4F1D-A7AB-989B31E2D80B}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EFE01F4F-D71B-4F1D-A7AB-989B31E2D80B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:BN5" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="334">
     <pivotField showAll="0"/>
@@ -31713,72 +31782,72 @@
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="66">
-    <dataField name="סכום של average after retrain accuracy increase" fld="202" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average before after retrain accuracy increase" fld="203" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Regular_SFLDT accuracy increase" fld="204" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_SFLDT accuracy increase" fld="205" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_SFLDT accuracy increase" fld="206" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average SFLDT_Features accuracy increase" fld="207" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_SFLDT accuracy increase" fld="208" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_SFLDT accuracy increase" fld="209" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_SFLDT_Features accuracy increase" fld="210" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_SFLDT_Features accuracy increase" fld="211" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_SFLDT accuracy increase" fld="212" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_SFLDT accuracy increase" fld="213" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_SFLDT_Features accuracy increase" fld="214" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_SFLDT_Features accuracy increase" fld="215" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_SFLDT accuracy increase" fld="216" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_SFLDT_Features accuracy increase" fld="217" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_SFLDT_Features accuracy increase" fld="218" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_SFLDT_Features accuracy increase" fld="219" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average STAT_SFLDT accuracy increase" fld="220" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_STAT_SFLDT accuracy increase" fld="221" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_STAT_SFLDT accuracy increase" fld="222" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average STAT_SFLDT_Features accuracy increase" fld="223" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_STAT_SFLDT accuracy increase" fld="224" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_STAT_SFLDT accuracy increase" fld="225" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_STAT_SFLDT_Features accuracy increase" fld="226" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_STAT_SFLDT_Features accuracy increase" fld="227" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_STAT_SFLDT accuracy increase" fld="228" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_STAT_SFLDT accuracy increase" fld="229" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_STAT_SFLDT_Features accuracy increase" fld="230" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_STAT_SFLDT_Features accuracy increase" fld="231" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_STAT_SFLDT accuracy increase" fld="232" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_STAT_SFLDT_Features accuracy increase" fld="233" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_STAT_SFLDT_Features accuracy increase" fld="234" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features accuracy increase" fld="235" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Regular_BARINEL accuracy increase" fld="236" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_BARINEL accuracy increase" fld="237" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_BARINEL accuracy increase" fld="238" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average BARINEL_Features accuracy increase" fld="239" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_BARINEL accuracy increase" fld="240" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_BARINEL accuracy increase" fld="241" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_BARINEL_Features accuracy increase" fld="242" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_BARINEL_Features accuracy increase" fld="243" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_BARINEL accuracy increase" fld="244" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_BARINEL accuracy increase" fld="245" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_BARINEL_Features accuracy increase" fld="246" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_BARINEL_Features accuracy increase" fld="247" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_BARINEL accuracy increase" fld="248" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_BARINEL_Features accuracy increase" fld="249" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_BARINEL_Features accuracy increase" fld="250" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_BARINEL_Features accuracy increase" fld="251" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average STAT_BARINEL accuracy increase" fld="252" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_STAT_BARINEL accuracy increase" fld="253" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_STAT_BARINEL accuracy increase" fld="254" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average STAT_BARINEL_Features accuracy increase" fld="255" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_STAT_BARINEL accuracy increase" fld="256" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_STAT_BARINEL accuracy increase" fld="257" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_STAT_BARINEL_Features accuracy increase" fld="258" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_STAT_BARINEL_Features accuracy increase" fld="259" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_STAT_BARINEL accuracy increase" fld="260" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_STAT_BARINEL accuracy increase" fld="261" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Confidence_STAT_BARINEL_Features accuracy increase" fld="262" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_STAT_BARINEL_Features accuracy increase" fld="263" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL accuracy increase" fld="264" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Confidence_STAT_BARINEL_Features accuracy increase" fld="265" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Error_Confidence_STAT_BARINEL_Features accuracy increase" fld="266" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase" fld="267" baseField="0" baseItem="0"/>
+    <dataField name=" after retrain accuracy increase" fld="202" baseField="0" baseItem="0"/>
+    <dataField name=" before after retrain accuracy increase" fld="203" baseField="0" baseItem="0"/>
+    <dataField name=" Regular_SFLDT accuracy increase" fld="204" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_SFLDT accuracy increase" fld="205" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_SFLDT accuracy increase" fld="206" baseField="0" baseItem="0"/>
+    <dataField name=" SFLDT_Features accuracy increase" fld="207" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_SFLDT accuracy increase" fld="208" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_SFLDT accuracy increase" fld="209" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_SFLDT_Features accuracy increase" fld="210" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_SFLDT_Features accuracy increase" fld="211" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_SFLDT accuracy increase" fld="212" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_SFLDT accuracy increase" fld="213" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_SFLDT_Features accuracy increase" fld="214" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_SFLDT_Features accuracy increase" fld="215" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_SFLDT accuracy increase" fld="216" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_SFLDT_Features accuracy increase" fld="217" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_SFLDT_Features accuracy increase" fld="218" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_SFLDT_Features accuracy increase" fld="219" baseField="0" baseItem="0"/>
+    <dataField name=" STAT_SFLDT accuracy increase" fld="220" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_STAT_SFLDT accuracy increase" fld="221" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_STAT_SFLDT accuracy increase" fld="222" baseField="0" baseItem="0"/>
+    <dataField name=" STAT_SFLDT_Features accuracy increase" fld="223" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_STAT_SFLDT accuracy increase" fld="224" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_STAT_SFLDT accuracy increase" fld="225" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_STAT_SFLDT_Features accuracy increase" fld="226" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_STAT_SFLDT_Features accuracy increase" fld="227" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_STAT_SFLDT accuracy increase" fld="228" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_STAT_SFLDT accuracy increase" fld="229" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_STAT_SFLDT_Features accuracy increase" fld="230" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_STAT_SFLDT_Features accuracy increase" fld="231" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_STAT_SFLDT accuracy increase" fld="232" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_STAT_SFLDT_Features accuracy increase" fld="233" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_STAT_SFLDT_Features accuracy increase" fld="234" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_STAT_SFLDT_Features accuracy increase" fld="235" baseField="0" baseItem="0"/>
+    <dataField name=" Regular_BARINEL accuracy increase" fld="236" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_BARINEL accuracy increase" fld="237" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_BARINEL accuracy increase" fld="238" baseField="0" baseItem="0"/>
+    <dataField name=" BARINEL_Features accuracy increase" fld="239" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_BARINEL accuracy increase" fld="240" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_BARINEL accuracy increase" fld="241" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_BARINEL_Features accuracy increase" fld="242" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_BARINEL_Features accuracy increase" fld="243" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_BARINEL accuracy increase" fld="244" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_BARINEL accuracy increase" fld="245" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_BARINEL_Features accuracy increase" fld="246" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_BARINEL_Features accuracy increase" fld="247" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_BARINEL accuracy increase" fld="248" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_BARINEL_Features accuracy increase" fld="249" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_BARINEL_Features accuracy increase" fld="250" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_BARINEL_Features accuracy increase" fld="251" baseField="0" baseItem="0"/>
+    <dataField name=" STAT_BARINEL accuracy increase" fld="252" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_STAT_BARINEL accuracy increase" fld="253" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_STAT_BARINEL accuracy increase" fld="254" baseField="0" baseItem="0"/>
+    <dataField name=" STAT_BARINEL_Features accuracy increase" fld="255" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_STAT_BARINEL accuracy increase" fld="256" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_STAT_BARINEL accuracy increase" fld="257" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_STAT_BARINEL_Features accuracy increase" fld="258" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_STAT_BARINEL_Features accuracy increase" fld="259" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_STAT_BARINEL accuracy increase" fld="260" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_STAT_BARINEL accuracy increase" fld="261" baseField="0" baseItem="0"/>
+    <dataField name=" Confidence_STAT_BARINEL_Features accuracy increase" fld="262" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_STAT_BARINEL_Features accuracy increase" fld="263" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_STAT_BARINEL accuracy increase" fld="264" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Confidence_STAT_BARINEL_Features accuracy increase" fld="265" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Error_Confidence_STAT_BARINEL_Features accuracy increase" fld="266" baseField="0" baseItem="0"/>
+    <dataField name=" Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features accuracy increase" fld="267" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="198">
     <chartFormat chart="0" format="0" series="1">
@@ -33574,7 +33643,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08670B7B-F882-4A26-85D3-F15721F6EB77}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08670B7B-F882-4A26-85D3-F15721F6EB77}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="334">
     <pivotField axis="axisRow" showAll="0">
@@ -34168,7 +34237,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2015A2E-F315-4060-8595-5F4634AB2596}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2015A2E-F315-4060-8595-5F4634AB2596}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="334">
     <pivotField showAll="0">
@@ -34524,9 +34593,9 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -34549,7 +34618,7 @@
   </pageFields>
   <dataFields count="2">
     <dataField name="סכום של average STAT_SFLDT wasted effort" fld="286" baseField="0" baseItem="0"/>
-    <dataField name="סכום של average Fuzzy_Participation_Error_Confidence_STAT_BARINEL_Features wasted effort" fld="331" baseField="0" baseItem="0"/>
+    <dataField name="Sum of average Fuzzy_Participation_Confidence_STAT_BARINEL_Features wasted effort" fld="329" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="9" format="18" series="1">
@@ -34561,7 +34630,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="67" series="1">
+    <chartFormat chart="9" format="69" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -34874,9 +34943,9 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -35481,7 +35550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0.50000000000000011</v>
       </c>
@@ -36086,7 +36155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0.50000000000000011</v>
       </c>
@@ -36691,7 +36760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0.50000000000000011</v>
       </c>
@@ -37296,7 +37365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.50000000000000011</v>
       </c>
@@ -37901,7 +37970,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0.50000000000000011</v>
       </c>
@@ -38506,7 +38575,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="7" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.50000000000000011</v>
       </c>
@@ -39111,7 +39180,7 @@
         <v>43.333333333333329</v>
       </c>
     </row>
-    <row r="8" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -39716,7 +39785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -40321,7 +40390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -40926,7 +40995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -41531,7 +41600,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -42136,7 +42205,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="13" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -42741,7 +42810,7 @@
         <v>56.333333333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -43346,7 +43415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -43951,7 +44020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -44556,7 +44625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -45161,7 +45230,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="18" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -45766,7 +45835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -46371,7 +46440,7 @@
         <v>57.666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -46976,7 +47045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -47581,7 +47650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -48186,7 +48255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -48791,7 +48860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -49396,7 +49465,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="25" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -50001,7 +50070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4.0000000000000009</v>
       </c>
@@ -50606,7 +50675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4.0000000000000009</v>
       </c>
@@ -51211,7 +51280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>4.0000000000000009</v>
       </c>
@@ -51816,7 +51885,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4.0000000000000009</v>
       </c>
@@ -52421,7 +52490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4.0000000000000009</v>
       </c>
@@ -53026,7 +53095,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="31" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4.0000000000000009</v>
       </c>
@@ -53631,7 +53700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -54236,7 +54305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -54841,7 +54910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -55446,7 +55515,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -56051,7 +56120,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="36" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -56656,7 +56725,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="37" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -57261,7 +57330,7 @@
         <v>69.333333333333329</v>
       </c>
     </row>
-    <row r="38" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>6</v>
       </c>
@@ -57866,7 +57935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -58471,7 +58540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -59076,7 +59145,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -59681,7 +59750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -60286,7 +60355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -60891,7 +60960,7 @@
         <v>63.333333333333343</v>
       </c>
     </row>
-    <row r="44" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>6.9999999999999991</v>
       </c>
@@ -61496,7 +61565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>6.9999999999999991</v>
       </c>
@@ -62101,7 +62170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>6.9999999999999991</v>
       </c>
@@ -62706,7 +62775,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>6.9999999999999991</v>
       </c>
@@ -63311,7 +63380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>6.9999999999999991</v>
       </c>
@@ -63916,7 +63985,7 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="49" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>6.9999999999999991</v>
       </c>
@@ -64521,7 +64590,7 @@
         <v>62.333333333333329</v>
       </c>
     </row>
-    <row r="50" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>8.0000000000000018</v>
       </c>
@@ -65126,7 +65195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>8.0000000000000018</v>
       </c>
@@ -65731,7 +65800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>8.0000000000000018</v>
       </c>
@@ -66336,7 +66405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>8.0000000000000018</v>
       </c>
@@ -66941,7 +67010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>8.0000000000000018</v>
       </c>
@@ -67546,7 +67615,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>8.0000000000000018</v>
       </c>
@@ -68151,7 +68220,7 @@
         <v>68.333333333333329</v>
       </c>
     </row>
-    <row r="56" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>9.0000000000000018</v>
       </c>
@@ -68756,7 +68825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>9.0000000000000018</v>
       </c>
@@ -69361,7 +69430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>9.0000000000000018</v>
       </c>
@@ -69966,7 +70035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>9.0000000000000018</v>
       </c>
@@ -70571,7 +70640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>9.0000000000000018</v>
       </c>
@@ -71176,7 +71245,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="61" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>9.0000000000000018</v>
       </c>
@@ -71781,7 +71850,7 @@
         <v>66.333333333333329</v>
       </c>
     </row>
-    <row r="62" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>10</v>
       </c>
@@ -72386,7 +72455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>10</v>
       </c>
@@ -72991,7 +73060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>10</v>
       </c>
@@ -73596,7 +73665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>10</v>
       </c>
@@ -74201,7 +74270,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="66" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>10</v>
       </c>
@@ -74806,7 +74875,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>10</v>
       </c>
@@ -75420,81 +75489,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="BK1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BN4" sqref="BN4"/>
+    <sheetView rightToLeft="1" topLeftCell="BL1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BL4" sqref="BL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="71.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="74.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="77" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="80.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="73.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="86.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="65.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="58.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="55.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="57.796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="71.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="74.796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="77.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="70" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="67.09765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="80.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="83" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="86.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="79.09765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="92.19921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="50.69921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="61.69921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="54.19921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="51.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="53.796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="67.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="70.796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="73.3984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="66" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="63.09765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="79" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="82.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="75.19921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="88.19921875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="48.19921875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="67.796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="60.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="57.3984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="60" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="73.3984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="77" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="79.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="72.09765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="69.09765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="82.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="85.09765625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="88.69921875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="81.19921875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="94.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="74.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="91" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="72.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="80.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="71.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="84.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="87.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="92" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="74.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="61.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="78.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="82.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="86.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="77.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="93.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="68.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="58.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="79.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="70.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="83.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="74" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="69.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="87.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="90.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="94.77734375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="102" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -75502,212 +75571,212 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" t="s">
+        <v>227</v>
+      </c>
+      <c r="M4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" t="s">
+        <v>229</v>
+      </c>
+      <c r="O4" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>232</v>
+      </c>
+      <c r="R4" t="s">
+        <v>233</v>
+      </c>
+      <c r="S4" t="s">
+        <v>234</v>
+      </c>
+      <c r="T4" t="s">
+        <v>235</v>
+      </c>
+      <c r="U4" t="s">
+        <v>236</v>
+      </c>
+      <c r="V4" t="s">
+        <v>237</v>
+      </c>
+      <c r="W4" t="s">
+        <v>238</v>
+      </c>
+      <c r="X4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BN4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" t="s">
-        <v>220</v>
-      </c>
-      <c r="N4" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>224</v>
-      </c>
-      <c r="R4" t="s">
-        <v>225</v>
-      </c>
-      <c r="S4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T4" t="s">
-        <v>227</v>
-      </c>
-      <c r="U4" t="s">
-        <v>228</v>
-      </c>
-      <c r="V4" t="s">
-        <v>229</v>
-      </c>
-      <c r="W4" t="s">
-        <v>230</v>
-      </c>
-      <c r="X4" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>259</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>264</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>268</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>14.178351199006068</v>
       </c>
@@ -75921,19 +75990,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="93.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="93.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="50.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="67" width="94.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="67" width="94.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -75941,14 +76010,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
         <v>208</v>
@@ -75957,213 +76026,213 @@
         <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.50000000000000011</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.1963881016807788</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>18.132575437426688</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>11.156270406007064</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>8.1357468714119516</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>6.5908329933472896</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>21.312104257990637</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>12.514589183039792</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>13.533038140153662</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>8.1185543369013562</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>21.218073740872526</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>12.034311244418696</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>12.848711738763555</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>12.032349678887519</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>23.042793573964168</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>13.964972632174808</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>16.164527780773287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4.0000000000000009</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>12.281224863851714</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>22.247633020477942</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>14.959346131596416</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>17.518308968129595</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>15.898290310346574</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>23.321763718161812</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>14.100643615573913</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>17.373268626606439</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>16.78192979879957</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>23.9847621013107</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>14.622925883976203</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>17.892258808956804</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6.9999999999999991</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>17.513210434347965</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>24.272677842264685</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>14.119065750712004</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>17.18633904030661</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8.0000000000000018</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>19.602144956483187</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>25.731514754522685</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>15.043633356382857</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>16.347900383891165</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9.0000000000000018</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>20.884087905754011</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>24.307535771946057</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>14.158591385573734</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>16.518591010342419</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>19.23907064087436</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>26.131649936008468</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>14.018627864397191</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>17.253185454824415</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="4">
+        <v>213</v>
+      </c>
+      <c r="B16">
         <v>14.178351199006066</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>23.268941641635951</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>13.80382712171415</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>15.787760963535463</v>
       </c>
     </row>
@@ -76177,52 +76246,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE4CA52-BB41-47FD-8D5A-CA5515FA5754}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B4"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="88.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="41.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60.796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="53.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="53" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="70" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="62.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="72.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="65.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="62.09765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="75.69921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="78.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="81.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="74.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="87.19921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="45.69921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="56.796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="49.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="72.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="87.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="49" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="62.44140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="66" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="58.69921875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="61.09765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="58.09765625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="71.69921875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="74.09765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="70.19921875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="83.19921875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="43.3984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="83.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="63" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="66" width="89.3984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="66" width="89.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -76230,24 +76300,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2.0713017000761229</v>
       </c>
       <c r="B4" s="4">
-        <v>2.186500888099467</v>
+        <v>2.421466632834306</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/data/results/results_final.xlsx
+++ b/data/results/results_final.xlsx
@@ -16589,115 +16589,115 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>5069</v>
+        <v>5702</v>
       </c>
       <c r="G10" t="n">
-        <v>280546.5456490873</v>
+        <v>317826.2813319067</v>
       </c>
       <c r="H10" t="n">
-        <v>-50655.09552903478</v>
+        <v>-56052.45235722861</v>
       </c>
       <c r="I10" t="n">
-        <v>57045.93142812786</v>
+        <v>65677.20896116752</v>
       </c>
       <c r="J10" t="n">
-        <v>71388.75892076807</v>
+        <v>74162.76773134076</v>
       </c>
       <c r="K10" t="n">
-        <v>81564</v>
+        <v>99023</v>
       </c>
       <c r="L10" t="n">
-        <v>1252.666666666667</v>
+        <v>1387.666666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>80361.93613269267</v>
+        <v>85297.91263783217</v>
       </c>
       <c r="N10" t="n">
-        <v>90332</v>
+        <v>101524</v>
       </c>
       <c r="O10" t="n">
-        <v>1252.666666666667</v>
+        <v>1387.666666666667</v>
       </c>
       <c r="P10" t="n">
-        <v>10348.11542205268</v>
+        <v>10202.8878155916</v>
       </c>
       <c r="Q10" t="n">
-        <v>48094</v>
+        <v>55137</v>
       </c>
       <c r="R10" t="n">
-        <v>555.6666666666666</v>
+        <v>605.6666666666666</v>
       </c>
       <c r="S10" t="n">
-        <v>17261.00845196548</v>
+        <v>17985.38436973347</v>
       </c>
       <c r="T10" t="n">
-        <v>44079</v>
+        <v>51074</v>
       </c>
       <c r="U10" t="n">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="V10" t="n">
-        <v>70726.66234439</v>
+        <v>74608.60067038119</v>
       </c>
       <c r="W10" t="n">
-        <v>36931</v>
+        <v>43019</v>
       </c>
       <c r="X10" t="n">
-        <v>1306.666666666667</v>
+        <v>1502.333333333333</v>
       </c>
       <c r="Y10" t="n">
-        <v>17261.00845196548</v>
+        <v>17985.38436973347</v>
       </c>
       <c r="Z10" t="n">
-        <v>44079</v>
+        <v>51074</v>
       </c>
       <c r="AA10" t="n">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="AB10" t="n">
-        <v>17261.00845196548</v>
+        <v>17985.38436973347</v>
       </c>
       <c r="AC10" t="n">
-        <v>44079</v>
+        <v>51074</v>
       </c>
       <c r="AD10" t="n">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="AE10" t="n">
-        <v>69357.84452434123</v>
+        <v>73490.29680040583</v>
       </c>
       <c r="AF10" t="n">
-        <v>31362</v>
+        <v>37059</v>
       </c>
       <c r="AG10" t="n">
-        <v>1212.333333333333</v>
+        <v>1399.666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>66701.49485471702</v>
+        <v>71115.44492813846</v>
       </c>
       <c r="AI10" t="n">
-        <v>36871</v>
+        <v>42851</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1226.666666666667</v>
+        <v>1422.333333333333</v>
       </c>
       <c r="AK10" t="n">
-        <v>17261.00845196548</v>
+        <v>17985.38436973347</v>
       </c>
       <c r="AL10" t="n">
-        <v>44079</v>
+        <v>51074</v>
       </c>
       <c r="AM10" t="n">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="AN10" t="n">
-        <v>70533.34145695352</v>
+        <v>74945.96994447187</v>
       </c>
       <c r="AO10" t="n">
-        <v>30007</v>
+        <v>35612</v>
       </c>
       <c r="AP10" t="n">
-        <v>1256.333333333333</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="11">
@@ -17777,115 +17777,115 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>5052</v>
+        <v>5703</v>
       </c>
       <c r="G19" t="n">
-        <v>277334.288165384</v>
+        <v>315630.5512446067</v>
       </c>
       <c r="H19" t="n">
-        <v>-33053.96119136489</v>
+        <v>-40600.44848583425</v>
       </c>
       <c r="I19" t="n">
-        <v>69381.12176820097</v>
+        <v>80276.18903277497</v>
       </c>
       <c r="J19" t="n">
-        <v>72601.59833739625</v>
+        <v>75486.35170062495</v>
       </c>
       <c r="K19" t="n">
-        <v>76540</v>
+        <v>94876</v>
       </c>
       <c r="L19" t="n">
-        <v>1253.333333333333</v>
+        <v>1382.333333333333</v>
       </c>
       <c r="M19" t="n">
-        <v>81344.34877910261</v>
+        <v>85708.32486280963</v>
       </c>
       <c r="N19" t="n">
-        <v>86862</v>
+        <v>97193</v>
       </c>
       <c r="O19" t="n">
-        <v>1253.333333333333</v>
+        <v>1382.333333333333</v>
       </c>
       <c r="P19" t="n">
-        <v>13102.22545983295</v>
+        <v>12796.24638658931</v>
       </c>
       <c r="Q19" t="n">
-        <v>47866</v>
+        <v>55433</v>
       </c>
       <c r="R19" t="n">
-        <v>569.3333333333333</v>
+        <v>620.3333333333333</v>
       </c>
       <c r="S19" t="n">
-        <v>19079.53261884964</v>
+        <v>19840.22021227266</v>
       </c>
       <c r="T19" t="n">
-        <v>42524</v>
+        <v>50215</v>
       </c>
       <c r="U19" t="n">
-        <v>742.3333333333333</v>
+        <v>830.6666666666666</v>
       </c>
       <c r="V19" t="n">
-        <v>71524.08866259349</v>
+        <v>77395.2396341929</v>
       </c>
       <c r="W19" t="n">
-        <v>38989</v>
+        <v>45370</v>
       </c>
       <c r="X19" t="n">
-        <v>1420</v>
+        <v>1637.666666666667</v>
       </c>
       <c r="Y19" t="n">
-        <v>19079.53261884964</v>
+        <v>19840.22021227266</v>
       </c>
       <c r="Z19" t="n">
-        <v>42524</v>
+        <v>50215</v>
       </c>
       <c r="AA19" t="n">
-        <v>742.3333333333333</v>
+        <v>830.6666666666666</v>
       </c>
       <c r="AB19" t="n">
-        <v>19079.53261884964</v>
+        <v>19840.22021227266</v>
       </c>
       <c r="AC19" t="n">
-        <v>42524</v>
+        <v>50215</v>
       </c>
       <c r="AD19" t="n">
-        <v>742.3333333333333</v>
+        <v>830.6666666666666</v>
       </c>
       <c r="AE19" t="n">
-        <v>67410.37636361395</v>
+        <v>71818.44811249287</v>
       </c>
       <c r="AF19" t="n">
-        <v>33703</v>
+        <v>39628</v>
       </c>
       <c r="AG19" t="n">
-        <v>1249.333333333333</v>
+        <v>1435</v>
       </c>
       <c r="AH19" t="n">
-        <v>67885.66995430592</v>
+        <v>73607.19461798306</v>
       </c>
       <c r="AI19" t="n">
-        <v>40132</v>
+        <v>46607</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1376.666666666667</v>
+        <v>1588</v>
       </c>
       <c r="AK19" t="n">
-        <v>19079.53261884964</v>
+        <v>19840.22021227266</v>
       </c>
       <c r="AL19" t="n">
-        <v>42524</v>
+        <v>50215</v>
       </c>
       <c r="AM19" t="n">
-        <v>742.3333333333333</v>
+        <v>830.6666666666666</v>
       </c>
       <c r="AN19" t="n">
-        <v>67743.38800644956</v>
+        <v>72786.8857642971</v>
       </c>
       <c r="AO19" t="n">
-        <v>30488</v>
+        <v>36687</v>
       </c>
       <c r="AP19" t="n">
-        <v>1245</v>
+        <v>1445.666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -18965,115 +18965,115 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>5333</v>
+        <v>6138</v>
       </c>
       <c r="G28" t="n">
-        <v>295918.7376127233</v>
+        <v>345406.0441142712</v>
       </c>
       <c r="H28" t="n">
-        <v>12525.61238765539</v>
+        <v>25967.8724495749</v>
       </c>
       <c r="I28" t="n">
-        <v>88531.31724150042</v>
+        <v>100131.3172415004</v>
       </c>
       <c r="J28" t="n">
-        <v>73106.49897559277</v>
+        <v>77073.21724184664</v>
       </c>
       <c r="K28" t="n">
-        <v>79990</v>
+        <v>102621</v>
       </c>
       <c r="L28" t="n">
-        <v>1354</v>
+        <v>1532.333333333333</v>
       </c>
       <c r="M28" t="n">
-        <v>84351.6393929894</v>
+        <v>90612.6301050637</v>
       </c>
       <c r="N28" t="n">
-        <v>89836</v>
+        <v>101899</v>
       </c>
       <c r="O28" t="n">
-        <v>1354</v>
+        <v>1532.333333333333</v>
       </c>
       <c r="P28" t="n">
-        <v>13796.25866653019</v>
+        <v>14022.72925476548</v>
       </c>
       <c r="Q28" t="n">
-        <v>49300</v>
+        <v>59254</v>
       </c>
       <c r="R28" t="n">
-        <v>664</v>
+        <v>737</v>
       </c>
       <c r="S28" t="n">
-        <v>27021.7509904805</v>
+        <v>29367.41662515542</v>
       </c>
       <c r="T28" t="n">
-        <v>43177</v>
+        <v>51083</v>
       </c>
       <c r="U28" t="n">
-        <v>876.3333333333334</v>
+        <v>1020.666666666667</v>
       </c>
       <c r="V28" t="n">
-        <v>71935.96786598742</v>
+        <v>78728.69232419175</v>
       </c>
       <c r="W28" t="n">
-        <v>43280</v>
+        <v>52673</v>
       </c>
       <c r="X28" t="n">
-        <v>1255.333333333333</v>
+        <v>1513.666666666667</v>
       </c>
       <c r="Y28" t="n">
-        <v>27021.7509904805</v>
+        <v>29367.41662515542</v>
       </c>
       <c r="Z28" t="n">
-        <v>43177</v>
+        <v>51083</v>
       </c>
       <c r="AA28" t="n">
-        <v>876.3333333333334</v>
+        <v>1020.666666666667</v>
       </c>
       <c r="AB28" t="n">
-        <v>27021.7509904805</v>
+        <v>29367.41662515542</v>
       </c>
       <c r="AC28" t="n">
-        <v>43177</v>
+        <v>51083</v>
       </c>
       <c r="AD28" t="n">
-        <v>876.3333333333334</v>
+        <v>1020.666666666667</v>
       </c>
       <c r="AE28" t="n">
-        <v>67020.58081854091</v>
+        <v>74636.37029222513</v>
       </c>
       <c r="AF28" t="n">
-        <v>41597</v>
+        <v>51419</v>
       </c>
       <c r="AG28" t="n">
-        <v>1334.666666666667</v>
+        <v>1585.333333333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>68752.35528145374</v>
+        <v>75496.93732479739</v>
       </c>
       <c r="AI28" t="n">
-        <v>44204</v>
+        <v>53757</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1253.333333333333</v>
+        <v>1512</v>
       </c>
       <c r="AK28" t="n">
-        <v>27021.7509904805</v>
+        <v>29367.41662515542</v>
       </c>
       <c r="AL28" t="n">
-        <v>43177</v>
+        <v>51083</v>
       </c>
       <c r="AM28" t="n">
-        <v>876.3333333333334</v>
+        <v>1020.666666666667</v>
       </c>
       <c r="AN28" t="n">
-        <v>65437.10814764015</v>
+        <v>73176.27223432745</v>
       </c>
       <c r="AO28" t="n">
-        <v>37552</v>
+        <v>47799</v>
       </c>
       <c r="AP28" t="n">
-        <v>1282.666666666667</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="29">
@@ -20153,115 +20153,115 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>5677</v>
+        <v>6443</v>
       </c>
       <c r="G37" t="n">
-        <v>322807.3522067272</v>
+        <v>368919.8722709327</v>
       </c>
       <c r="H37" t="n">
-        <v>17979.25299118091</v>
+        <v>28179.41350482457</v>
       </c>
       <c r="I37" t="n">
-        <v>86394.35572902452</v>
+        <v>101537.533899169</v>
       </c>
       <c r="J37" t="n">
-        <v>77793.22524000311</v>
+        <v>81695.15140372702</v>
       </c>
       <c r="K37" t="n">
-        <v>80798</v>
+        <v>101350</v>
       </c>
       <c r="L37" t="n">
-        <v>1454.333333333333</v>
+        <v>1619</v>
       </c>
       <c r="M37" t="n">
-        <v>84499.07365652538</v>
+        <v>90375.47815090739</v>
       </c>
       <c r="N37" t="n">
-        <v>91405</v>
+        <v>101916</v>
       </c>
       <c r="O37" t="n">
-        <v>1454.666666666667</v>
+        <v>1619.333333333333</v>
       </c>
       <c r="P37" t="n">
-        <v>18304.71447538552</v>
+        <v>18688.50259737589</v>
       </c>
       <c r="Q37" t="n">
-        <v>53291</v>
+        <v>63171</v>
       </c>
       <c r="R37" t="n">
-        <v>740.6666666666666</v>
+        <v>811.3333333333333</v>
       </c>
       <c r="S37" t="n">
-        <v>29936.76114358223</v>
+        <v>32292.45937793215</v>
       </c>
       <c r="T37" t="n">
-        <v>45657</v>
+        <v>53157</v>
       </c>
       <c r="U37" t="n">
-        <v>974</v>
+        <v>1107</v>
       </c>
       <c r="V37" t="n">
-        <v>58759.17599161463</v>
+        <v>64088.54998840435</v>
       </c>
       <c r="W37" t="n">
-        <v>44977</v>
+        <v>53901</v>
       </c>
       <c r="X37" t="n">
-        <v>1284.333333333333</v>
+        <v>1517.666666666667</v>
       </c>
       <c r="Y37" t="n">
-        <v>29936.76114358223</v>
+        <v>32292.45937793215</v>
       </c>
       <c r="Z37" t="n">
-        <v>45657</v>
+        <v>53157</v>
       </c>
       <c r="AA37" t="n">
-        <v>974</v>
+        <v>1107</v>
       </c>
       <c r="AB37" t="n">
-        <v>29936.76114358223</v>
+        <v>32292.45937793215</v>
       </c>
       <c r="AC37" t="n">
-        <v>45657</v>
+        <v>53157</v>
       </c>
       <c r="AD37" t="n">
-        <v>974</v>
+        <v>1107</v>
       </c>
       <c r="AE37" t="n">
-        <v>58702.19998760593</v>
+        <v>65334.78425726885</v>
       </c>
       <c r="AF37" t="n">
-        <v>47283</v>
+        <v>56633</v>
       </c>
       <c r="AG37" t="n">
-        <v>1357</v>
+        <v>1582.333333333333</v>
       </c>
       <c r="AH37" t="n">
-        <v>56524.63255438714</v>
+        <v>61712.91505839997</v>
       </c>
       <c r="AI37" t="n">
-        <v>52077</v>
+        <v>61300</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1301.333333333333</v>
+        <v>1533.666666666666</v>
       </c>
       <c r="AK37" t="n">
-        <v>29936.76114358223</v>
+        <v>32292.45937793215</v>
       </c>
       <c r="AL37" t="n">
-        <v>45657</v>
+        <v>53157</v>
       </c>
       <c r="AM37" t="n">
-        <v>974</v>
+        <v>1107</v>
       </c>
       <c r="AN37" t="n">
-        <v>58207.20515079661</v>
+        <v>64805.60001436001</v>
       </c>
       <c r="AO37" t="n">
-        <v>45922</v>
+        <v>55651</v>
       </c>
       <c r="AP37" t="n">
-        <v>1314</v>
+        <v>1540.333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -21341,115 +21341,115 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>5855</v>
+        <v>6639</v>
       </c>
       <c r="G46" t="n">
-        <v>336869.8609866071</v>
+        <v>384317.5276532738</v>
       </c>
       <c r="H46" t="n">
-        <v>25372.76636652031</v>
+        <v>39991.76636652031</v>
       </c>
       <c r="I46" t="n">
-        <v>101688.9134819897</v>
+        <v>119322.246815323</v>
       </c>
       <c r="J46" t="n">
-        <v>70759.72911135745</v>
+        <v>73885.06244469078</v>
       </c>
       <c r="K46" t="n">
-        <v>87017</v>
+        <v>107365</v>
       </c>
       <c r="L46" t="n">
-        <v>1397.333333333333</v>
+        <v>1557.333333333333</v>
       </c>
       <c r="M46" t="n">
-        <v>76431.09892175579</v>
+        <v>81460.76558842247</v>
       </c>
       <c r="N46" t="n">
-        <v>89918</v>
+        <v>100243</v>
       </c>
       <c r="O46" t="n">
-        <v>1397.666666666667</v>
+        <v>1557.666666666667</v>
       </c>
       <c r="P46" t="n">
-        <v>18875.60664431599</v>
+        <v>19158.77331098266</v>
       </c>
       <c r="Q46" t="n">
-        <v>54861</v>
+        <v>64613</v>
       </c>
       <c r="R46" t="n">
-        <v>759.3333333333334</v>
+        <v>830.3333333333334</v>
       </c>
       <c r="S46" t="n">
-        <v>31458.59305470858</v>
+        <v>32561.42638804191</v>
       </c>
       <c r="T46" t="n">
-        <v>44328</v>
+        <v>51968</v>
       </c>
       <c r="U46" t="n">
-        <v>1033.666666666667</v>
+        <v>1158</v>
       </c>
       <c r="V46" t="n">
-        <v>49511.11296941019</v>
+        <v>55076.77963607686</v>
       </c>
       <c r="W46" t="n">
-        <v>38867</v>
+        <v>47936</v>
       </c>
       <c r="X46" t="n">
-        <v>1258</v>
+        <v>1500.333333333333</v>
       </c>
       <c r="Y46" t="n">
-        <v>31458.59305470858</v>
+        <v>32561.42638804191</v>
       </c>
       <c r="Z46" t="n">
-        <v>44328</v>
+        <v>51968</v>
       </c>
       <c r="AA46" t="n">
-        <v>1033.666666666667</v>
+        <v>1158</v>
       </c>
       <c r="AB46" t="n">
-        <v>31458.59305470858</v>
+        <v>32561.42638804191</v>
       </c>
       <c r="AC46" t="n">
-        <v>44328</v>
+        <v>51968</v>
       </c>
       <c r="AD46" t="n">
-        <v>1033.666666666667</v>
+        <v>1158</v>
       </c>
       <c r="AE46" t="n">
-        <v>62775.81589069685</v>
+        <v>69521.81589069685</v>
       </c>
       <c r="AF46" t="n">
-        <v>47740</v>
+        <v>57211</v>
       </c>
       <c r="AG46" t="n">
-        <v>1512</v>
+        <v>1749</v>
       </c>
       <c r="AH46" t="n">
-        <v>46850.57593905871</v>
+        <v>52290.74260572538</v>
       </c>
       <c r="AI46" t="n">
-        <v>53619</v>
+        <v>62922</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1295.333333333333</v>
+        <v>1537</v>
       </c>
       <c r="AK46" t="n">
-        <v>31458.59305470858</v>
+        <v>32561.42638804191</v>
       </c>
       <c r="AL46" t="n">
-        <v>44328</v>
+        <v>51968</v>
       </c>
       <c r="AM46" t="n">
-        <v>1033.666666666667</v>
+        <v>1158</v>
       </c>
       <c r="AN46" t="n">
-        <v>59583.21876488367</v>
+        <v>65522.05209821701</v>
       </c>
       <c r="AO46" t="n">
-        <v>45407</v>
+        <v>55224</v>
       </c>
       <c r="AP46" t="n">
-        <v>1465</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="47">
@@ -22529,115 +22529,115 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>5837</v>
+        <v>6634</v>
       </c>
       <c r="G55" t="n">
-        <v>336677.9617338286</v>
+        <v>385034.9807979534</v>
       </c>
       <c r="H55" t="n">
-        <v>15608.35807168063</v>
+        <v>33138.5140508834</v>
       </c>
       <c r="I55" t="n">
-        <v>108488.1063041736</v>
+        <v>128077.3610702048</v>
       </c>
       <c r="J55" t="n">
-        <v>71120.55292203689</v>
+        <v>74525.92553902129</v>
       </c>
       <c r="K55" t="n">
-        <v>84995</v>
+        <v>106268</v>
       </c>
       <c r="L55" t="n">
-        <v>1409.666666666667</v>
+        <v>1581</v>
       </c>
       <c r="M55" t="n">
-        <v>77928.82503126655</v>
+        <v>83485.32416471542</v>
       </c>
       <c r="N55" t="n">
-        <v>89907</v>
+        <v>99536</v>
       </c>
       <c r="O55" t="n">
-        <v>1409.666666666667</v>
+        <v>1581</v>
       </c>
       <c r="P55" t="n">
-        <v>20911.65704288433</v>
+        <v>21834.88061307497</v>
       </c>
       <c r="Q55" t="n">
-        <v>54185</v>
+        <v>64515</v>
       </c>
       <c r="R55" t="n">
-        <v>791.3333333333334</v>
+        <v>877.6666666666667</v>
       </c>
       <c r="S55" t="n">
-        <v>34384.6965285475</v>
+        <v>35686.77625125114</v>
       </c>
       <c r="T55" t="n">
-        <v>42435</v>
+        <v>50035</v>
       </c>
       <c r="U55" t="n">
-        <v>1070</v>
+        <v>1201.333333333333</v>
       </c>
       <c r="V55" t="n">
-        <v>47420.06131603325</v>
+        <v>52712.2623558946</v>
       </c>
       <c r="W55" t="n">
-        <v>38807</v>
+        <v>48219</v>
       </c>
       <c r="X55" t="n">
-        <v>1224</v>
+        <v>1452</v>
       </c>
       <c r="Y55" t="n">
-        <v>34384.6965285475</v>
+        <v>35686.77625125114</v>
       </c>
       <c r="Z55" t="n">
-        <v>42435</v>
+        <v>50035</v>
       </c>
       <c r="AA55" t="n">
-        <v>1070</v>
+        <v>1201.333333333333</v>
       </c>
       <c r="AB55" t="n">
-        <v>34384.6965285475</v>
+        <v>35686.77625125114</v>
       </c>
       <c r="AC55" t="n">
-        <v>42435</v>
+        <v>50035</v>
       </c>
       <c r="AD55" t="n">
-        <v>1070</v>
+        <v>1201.333333333333</v>
       </c>
       <c r="AE55" t="n">
-        <v>65336.04276826824</v>
+        <v>71903.46044591122</v>
       </c>
       <c r="AF55" t="n">
-        <v>44986</v>
+        <v>54709</v>
       </c>
       <c r="AG55" t="n">
-        <v>1456.666666666667</v>
+        <v>1700.666666666667</v>
       </c>
       <c r="AH55" t="n">
-        <v>43768.95712474304</v>
+        <v>48886.46145749868</v>
       </c>
       <c r="AI55" t="n">
-        <v>52749</v>
+        <v>62357</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1257.666666666667</v>
+        <v>1483</v>
       </c>
       <c r="AK55" t="n">
-        <v>34384.6965285475</v>
+        <v>35686.77625125114</v>
       </c>
       <c r="AL55" t="n">
-        <v>42435</v>
+        <v>50035</v>
       </c>
       <c r="AM55" t="n">
-        <v>1070</v>
+        <v>1201.333333333333</v>
       </c>
       <c r="AN55" t="n">
-        <v>61989.46092439249</v>
+        <v>68320.13683427118</v>
       </c>
       <c r="AO55" t="n">
-        <v>43876</v>
+        <v>53932</v>
       </c>
       <c r="AP55" t="n">
-        <v>1527</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="56">
@@ -23717,115 +23717,115 @@
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>5868</v>
+        <v>6666</v>
       </c>
       <c r="G64" t="n">
-        <v>338915.7934488271</v>
+        <v>387229.8728712098</v>
       </c>
       <c r="H64" t="n">
-        <v>39320.03873666607</v>
+        <v>52080.32754533034</v>
       </c>
       <c r="I64" t="n">
-        <v>114560.9877347062</v>
+        <v>134274.3451354282</v>
       </c>
       <c r="J64" t="n">
-        <v>70912.10956150132</v>
+        <v>74468.78826186233</v>
       </c>
       <c r="K64" t="n">
-        <v>88917</v>
+        <v>110866</v>
       </c>
       <c r="L64" t="n">
-        <v>1411.666666666667</v>
+        <v>1584.666666666667</v>
       </c>
       <c r="M64" t="n">
-        <v>78100.92879777547</v>
+        <v>83990.45948369605</v>
       </c>
       <c r="N64" t="n">
-        <v>88911</v>
+        <v>98743</v>
       </c>
       <c r="O64" t="n">
-        <v>1411.666666666667</v>
+        <v>1584.666666666667</v>
       </c>
       <c r="P64" t="n">
-        <v>21965.14231780776</v>
+        <v>22879.04123477526</v>
       </c>
       <c r="Q64" t="n">
-        <v>55184</v>
+        <v>65456</v>
       </c>
       <c r="R64" t="n">
-        <v>807.3333333333334</v>
+        <v>890.6666666666667</v>
       </c>
       <c r="S64" t="n">
-        <v>33766.11074023078</v>
+        <v>35172.78944059178</v>
       </c>
       <c r="T64" t="n">
-        <v>41632</v>
+        <v>49111</v>
       </c>
       <c r="U64" t="n">
-        <v>1081</v>
+        <v>1217.666666666667</v>
       </c>
       <c r="V64" t="n">
-        <v>46875.54359043517</v>
+        <v>52187.63745325105</v>
       </c>
       <c r="W64" t="n">
-        <v>39069</v>
+        <v>48484</v>
       </c>
       <c r="X64" t="n">
-        <v>1224</v>
+        <v>1448</v>
       </c>
       <c r="Y64" t="n">
-        <v>33766.11074023078</v>
+        <v>35172.78944059178</v>
       </c>
       <c r="Z64" t="n">
-        <v>41632</v>
+        <v>49111</v>
       </c>
       <c r="AA64" t="n">
-        <v>1081</v>
+        <v>1217.666666666667</v>
       </c>
       <c r="AB64" t="n">
-        <v>33766.11074023078</v>
+        <v>35172.78944059178</v>
       </c>
       <c r="AC64" t="n">
-        <v>41632</v>
+        <v>49111</v>
       </c>
       <c r="AD64" t="n">
-        <v>1081</v>
+        <v>1217.666666666667</v>
       </c>
       <c r="AE64" t="n">
-        <v>65389.35818269619</v>
+        <v>72577.08381446514</v>
       </c>
       <c r="AF64" t="n">
-        <v>47129</v>
+        <v>56970</v>
       </c>
       <c r="AG64" t="n">
-        <v>1443.666666666667</v>
+        <v>1682.666666666667</v>
       </c>
       <c r="AH64" t="n">
-        <v>44333.00797596798</v>
+        <v>49596.18487127484</v>
       </c>
       <c r="AI64" t="n">
-        <v>54515</v>
+        <v>64063</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1262</v>
+        <v>1485.666666666667</v>
       </c>
       <c r="AK64" t="n">
-        <v>33766.11074023078</v>
+        <v>35172.78944059178</v>
       </c>
       <c r="AL64" t="n">
-        <v>41632</v>
+        <v>49111</v>
       </c>
       <c r="AM64" t="n">
-        <v>1081</v>
+        <v>1217.666666666667</v>
       </c>
       <c r="AN64" t="n">
-        <v>62553.73905247665</v>
+        <v>69310.77876366799</v>
       </c>
       <c r="AO64" t="n">
-        <v>44544</v>
+        <v>54643</v>
       </c>
       <c r="AP64" t="n">
-        <v>1547.333333333333</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="65">
@@ -24905,115 +24905,115 @@
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>5743</v>
+        <v>6558</v>
       </c>
       <c r="G73" t="n">
-        <v>330894.1964498445</v>
+        <v>380606.6258283756</v>
       </c>
       <c r="H73" t="n">
-        <v>55065.5539454457</v>
+        <v>75188.34113941934</v>
       </c>
       <c r="I73" t="n">
-        <v>131240.5877564872</v>
+        <v>152576.1809768262</v>
       </c>
       <c r="J73" t="n">
-        <v>76361.1759073932</v>
+        <v>80152.32468328775</v>
       </c>
       <c r="K73" t="n">
-        <v>91572</v>
+        <v>114761</v>
       </c>
       <c r="L73" t="n">
-        <v>1432</v>
+        <v>1607.333333333333</v>
       </c>
       <c r="M73" t="n">
-        <v>84168.70168839947</v>
+        <v>90172.84481457649</v>
       </c>
       <c r="N73" t="n">
-        <v>87851</v>
+        <v>97463</v>
       </c>
       <c r="O73" t="n">
-        <v>1432</v>
+        <v>1607.333333333333</v>
       </c>
       <c r="P73" t="n">
-        <v>27228.28557032703</v>
+        <v>28137.89009010103</v>
       </c>
       <c r="Q73" t="n">
-        <v>53865</v>
+        <v>64329</v>
       </c>
       <c r="R73" t="n">
-        <v>782.6666666666666</v>
+        <v>869.6666666666666</v>
       </c>
       <c r="S73" t="n">
-        <v>36676.84709509888</v>
+        <v>37960.08626647364</v>
       </c>
       <c r="T73" t="n">
-        <v>41022</v>
+        <v>47898</v>
       </c>
       <c r="U73" t="n">
-        <v>1053.666666666667</v>
+        <v>1195.666666666667</v>
       </c>
       <c r="V73" t="n">
-        <v>51952.71071264434</v>
+        <v>57129.73519475357</v>
       </c>
       <c r="W73" t="n">
-        <v>39321</v>
+        <v>48963</v>
       </c>
       <c r="X73" t="n">
-        <v>1216.333333333333</v>
+        <v>1445.666666666667</v>
       </c>
       <c r="Y73" t="n">
-        <v>36676.84709509888</v>
+        <v>37960.08626647364</v>
       </c>
       <c r="Z73" t="n">
-        <v>41022</v>
+        <v>47898</v>
       </c>
       <c r="AA73" t="n">
-        <v>1053.666666666667</v>
+        <v>1195.666666666667</v>
       </c>
       <c r="AB73" t="n">
-        <v>36676.84709509888</v>
+        <v>37960.08626647364</v>
       </c>
       <c r="AC73" t="n">
-        <v>41022</v>
+        <v>47898</v>
       </c>
       <c r="AD73" t="n">
-        <v>1053.666666666667</v>
+        <v>1195.666666666667</v>
       </c>
       <c r="AE73" t="n">
-        <v>73772.43042552058</v>
+        <v>81002.1856044283</v>
       </c>
       <c r="AF73" t="n">
-        <v>49998</v>
+        <v>60205</v>
       </c>
       <c r="AG73" t="n">
-        <v>1522.333333333333</v>
+        <v>1767.666666666667</v>
       </c>
       <c r="AH73" t="n">
-        <v>49242.09440054239</v>
+        <v>54405.37123670058</v>
       </c>
       <c r="AI73" t="n">
-        <v>51905</v>
+        <v>61623</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1259.333333333333</v>
+        <v>1490</v>
       </c>
       <c r="AK73" t="n">
-        <v>36676.84709509888</v>
+        <v>37960.08626647364</v>
       </c>
       <c r="AL73" t="n">
-        <v>41022</v>
+        <v>47898</v>
       </c>
       <c r="AM73" t="n">
-        <v>1053.666666666667</v>
+        <v>1195.666666666667</v>
       </c>
       <c r="AN73" t="n">
-        <v>69780.63237262685</v>
+        <v>76890.99018806941</v>
       </c>
       <c r="AO73" t="n">
-        <v>47745</v>
+        <v>57926</v>
       </c>
       <c r="AP73" t="n">
-        <v>1511.333333333333</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="74">
@@ -26093,115 +26093,115 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>5757</v>
+        <v>6596</v>
       </c>
       <c r="G82" t="n">
-        <v>331572.6103415878</v>
+        <v>383211.5867195405</v>
       </c>
       <c r="H82" t="n">
-        <v>98360.91701888156</v>
+        <v>118565.4445779367</v>
       </c>
       <c r="I82" t="n">
-        <v>123713.9895987293</v>
+        <v>146627.7691262884</v>
       </c>
       <c r="J82" t="n">
-        <v>75912.02543689795</v>
+        <v>80524.82071248851</v>
       </c>
       <c r="K82" t="n">
-        <v>93967</v>
+        <v>117133</v>
       </c>
       <c r="L82" t="n">
-        <v>1428</v>
+        <v>1614</v>
       </c>
       <c r="M82" t="n">
-        <v>83235.05214430622</v>
+        <v>90566.74505769204</v>
       </c>
       <c r="N82" t="n">
-        <v>89014</v>
+        <v>98606</v>
       </c>
       <c r="O82" t="n">
-        <v>1428</v>
+        <v>1614</v>
       </c>
       <c r="P82" t="n">
-        <v>29830.83902832562</v>
+        <v>30828.87052438861</v>
       </c>
       <c r="Q82" t="n">
-        <v>53500</v>
+        <v>64220</v>
       </c>
       <c r="R82" t="n">
-        <v>831.9999999999999</v>
+        <v>920.6666666666665</v>
       </c>
       <c r="S82" t="n">
-        <v>37356.64638626782</v>
+        <v>38951.7251264253</v>
       </c>
       <c r="T82" t="n">
-        <v>40220</v>
+        <v>46812</v>
       </c>
       <c r="U82" t="n">
-        <v>1072.666666666667</v>
+        <v>1222.666666666667</v>
       </c>
       <c r="V82" t="n">
-        <v>53666.28866647162</v>
+        <v>57601.91858773147</v>
       </c>
       <c r="W82" t="n">
-        <v>40913</v>
+        <v>52372</v>
       </c>
       <c r="X82" t="n">
-        <v>1249.333333333333</v>
+        <v>1444.333333333333</v>
       </c>
       <c r="Y82" t="n">
-        <v>37356.64638626782</v>
+        <v>38951.7251264253</v>
       </c>
       <c r="Z82" t="n">
-        <v>40220</v>
+        <v>46812</v>
       </c>
       <c r="AA82" t="n">
-        <v>1072.666666666667</v>
+        <v>1222.666666666667</v>
       </c>
       <c r="AB82" t="n">
-        <v>37356.64638626782</v>
+        <v>38951.7251264253</v>
       </c>
       <c r="AC82" t="n">
-        <v>40220</v>
+        <v>46812</v>
       </c>
       <c r="AD82" t="n">
-        <v>1072.666666666667</v>
+        <v>1222.666666666667</v>
       </c>
       <c r="AE82" t="n">
-        <v>71263.64838323693</v>
+        <v>76292.97909189835</v>
       </c>
       <c r="AF82" t="n">
-        <v>51506</v>
+        <v>63259</v>
       </c>
       <c r="AG82" t="n">
-        <v>1536.666666666667</v>
+        <v>1740</v>
       </c>
       <c r="AH82" t="n">
-        <v>50675.42133641148</v>
+        <v>54592.94102145085</v>
       </c>
       <c r="AI82" t="n">
-        <v>51838</v>
+        <v>63323</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1270</v>
+        <v>1463.666666666667</v>
       </c>
       <c r="AK82" t="n">
-        <v>37356.64638626782</v>
+        <v>38951.7251264253</v>
       </c>
       <c r="AL82" t="n">
-        <v>40220</v>
+        <v>46812</v>
       </c>
       <c r="AM82" t="n">
-        <v>1072.666666666667</v>
+        <v>1222.666666666667</v>
       </c>
       <c r="AN82" t="n">
-        <v>69354.96610357317</v>
+        <v>73818.15507995112</v>
       </c>
       <c r="AO82" t="n">
-        <v>53384</v>
+        <v>65484</v>
       </c>
       <c r="AP82" t="n">
-        <v>1544.333333333333</v>
+        <v>1750.333333333333</v>
       </c>
     </row>
     <row r="83">
@@ -27281,115 +27281,115 @@
         <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>5836</v>
+        <v>6651</v>
       </c>
       <c r="G91" t="n">
-        <v>337133.5547279215</v>
+        <v>386821.3897794679</v>
       </c>
       <c r="H91" t="n">
-        <v>87369.33929781331</v>
+        <v>106074.2877514216</v>
       </c>
       <c r="I91" t="n">
-        <v>136021.43593398</v>
+        <v>157692.3637690315</v>
       </c>
       <c r="J91" t="n">
-        <v>83737.56526910239</v>
+        <v>87260.45186704054</v>
       </c>
       <c r="K91" t="n">
-        <v>95551</v>
+        <v>117151</v>
       </c>
       <c r="L91" t="n">
-        <v>1535</v>
+        <v>1699.666666666667</v>
       </c>
       <c r="M91" t="n">
-        <v>91288.7766445373</v>
+        <v>96997.02406721772</v>
       </c>
       <c r="N91" t="n">
-        <v>84707</v>
+        <v>93814</v>
       </c>
       <c r="O91" t="n">
-        <v>1535</v>
+        <v>1699.666666666667</v>
       </c>
       <c r="P91" t="n">
-        <v>36173.19540339302</v>
+        <v>36932.57684669199</v>
       </c>
       <c r="Q91" t="n">
-        <v>54415</v>
+        <v>65021</v>
       </c>
       <c r="R91" t="n">
-        <v>890</v>
+        <v>970.3333333333334</v>
       </c>
       <c r="S91" t="n">
-        <v>37930.45893448552</v>
+        <v>39406.95377984634</v>
       </c>
       <c r="T91" t="n">
-        <v>39628</v>
+        <v>45719</v>
       </c>
       <c r="U91" t="n">
-        <v>1126.333333333333</v>
+        <v>1270.333333333333</v>
       </c>
       <c r="V91" t="n">
-        <v>53638.91978378115</v>
+        <v>58396.23937141002</v>
       </c>
       <c r="W91" t="n">
-        <v>47556</v>
+        <v>59276</v>
       </c>
       <c r="X91" t="n">
-        <v>1265.333333333333</v>
+        <v>1471.333333333333</v>
       </c>
       <c r="Y91" t="n">
-        <v>37930.45893448552</v>
+        <v>39406.95377984634</v>
       </c>
       <c r="Z91" t="n">
-        <v>39628</v>
+        <v>45719</v>
       </c>
       <c r="AA91" t="n">
-        <v>1126.333333333333</v>
+        <v>1270.333333333333</v>
       </c>
       <c r="AB91" t="n">
-        <v>37930.45893448552</v>
+        <v>39406.95377984634</v>
       </c>
       <c r="AC91" t="n">
-        <v>39628</v>
+        <v>45719</v>
       </c>
       <c r="AD91" t="n">
-        <v>1126.333333333333</v>
+        <v>1270.333333333333</v>
       </c>
       <c r="AE91" t="n">
-        <v>62366.34153641525</v>
+        <v>66877.2693714668</v>
       </c>
       <c r="AF91" t="n">
-        <v>60165</v>
+        <v>71530</v>
       </c>
       <c r="AG91" t="n">
-        <v>1520.333333333333</v>
+        <v>1707.666666666667</v>
       </c>
       <c r="AH91" t="n">
-        <v>51046.22589198168</v>
+        <v>55835.09187136313</v>
       </c>
       <c r="AI91" t="n">
-        <v>64714</v>
+        <v>76488</v>
       </c>
       <c r="AJ91" t="n">
-        <v>1250.333333333333</v>
+        <v>1456</v>
       </c>
       <c r="AK91" t="n">
-        <v>37930.45893448552</v>
+        <v>39406.95377984634</v>
       </c>
       <c r="AL91" t="n">
-        <v>39628</v>
+        <v>45719</v>
       </c>
       <c r="AM91" t="n">
-        <v>1126.333333333333</v>
+        <v>1270.333333333333</v>
       </c>
       <c r="AN91" t="n">
-        <v>60126.16159275653</v>
+        <v>64642.45025255034</v>
       </c>
       <c r="AO91" t="n">
-        <v>59246</v>
+        <v>70868</v>
       </c>
       <c r="AP91" t="n">
-        <v>1578.666666666667</v>
+        <v>1779.666666666667</v>
       </c>
     </row>
     <row r="92">
@@ -28469,115 +28469,115 @@
         <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>5858</v>
+        <v>6702</v>
       </c>
       <c r="G100" t="n">
-        <v>339679.0664673753</v>
+        <v>391885.7764240853</v>
       </c>
       <c r="H100" t="n">
-        <v>83497.6408835763</v>
+        <v>98884.00451993993</v>
       </c>
       <c r="I100" t="n">
-        <v>127771.5528987114</v>
+        <v>149873.284500443</v>
       </c>
       <c r="J100" t="n">
-        <v>81776.17370342468</v>
+        <v>86075.09145234243</v>
       </c>
       <c r="K100" t="n">
-        <v>95081</v>
+        <v>117263</v>
       </c>
       <c r="L100" t="n">
-        <v>1522.666666666667</v>
+        <v>1696</v>
       </c>
       <c r="M100" t="n">
-        <v>89485.65505501024</v>
+        <v>96339.55115890634</v>
       </c>
       <c r="N100" t="n">
-        <v>87353</v>
+        <v>96862</v>
       </c>
       <c r="O100" t="n">
-        <v>1522.666666666667</v>
+        <v>1696</v>
       </c>
       <c r="P100" t="n">
-        <v>35982.87702205896</v>
+        <v>36836.12377530572</v>
       </c>
       <c r="Q100" t="n">
-        <v>54646</v>
+        <v>65729</v>
       </c>
       <c r="R100" t="n">
-        <v>889</v>
+        <v>976</v>
       </c>
       <c r="S100" t="n">
-        <v>37826.78447471155</v>
+        <v>39507.30395523104</v>
       </c>
       <c r="T100" t="n">
-        <v>39579</v>
+        <v>45844</v>
       </c>
       <c r="U100" t="n">
-        <v>1118</v>
+        <v>1273</v>
       </c>
       <c r="V100" t="n">
-        <v>52273.157209377</v>
+        <v>54917.74595396574</v>
       </c>
       <c r="W100" t="n">
-        <v>47249</v>
+        <v>60235</v>
       </c>
       <c r="X100" t="n">
-        <v>1265.333333333333</v>
+        <v>1426.666666666667</v>
       </c>
       <c r="Y100" t="n">
-        <v>37826.78447471155</v>
+        <v>39507.30395523104</v>
       </c>
       <c r="Z100" t="n">
-        <v>39579</v>
+        <v>45844</v>
       </c>
       <c r="AA100" t="n">
-        <v>1118.333333333333</v>
+        <v>1273.333333333333</v>
       </c>
       <c r="AB100" t="n">
-        <v>37826.78447471155</v>
+        <v>39507.30395523104</v>
       </c>
       <c r="AC100" t="n">
-        <v>39579</v>
+        <v>45844</v>
       </c>
       <c r="AD100" t="n">
-        <v>1118</v>
+        <v>1273</v>
       </c>
       <c r="AE100" t="n">
-        <v>60882.98942840926</v>
+        <v>64578.4439738638</v>
       </c>
       <c r="AF100" t="n">
-        <v>59080</v>
+        <v>70591</v>
       </c>
       <c r="AG100" t="n">
-        <v>1527</v>
+        <v>1692.333333333333</v>
       </c>
       <c r="AH100" t="n">
-        <v>49905.37699511323</v>
+        <v>52750.83154056778</v>
       </c>
       <c r="AI100" t="n">
-        <v>64757</v>
+        <v>77770</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1247.333333333333</v>
+        <v>1412</v>
       </c>
       <c r="AK100" t="n">
-        <v>37826.78447471155</v>
+        <v>39507.30395523104</v>
       </c>
       <c r="AL100" t="n">
-        <v>39579</v>
+        <v>45844</v>
       </c>
       <c r="AM100" t="n">
-        <v>1118</v>
+        <v>1273</v>
       </c>
       <c r="AN100" t="n">
-        <v>59058.92317024834</v>
+        <v>63685.54654687172</v>
       </c>
       <c r="AO100" t="n">
-        <v>61558</v>
+        <v>73737</v>
       </c>
       <c r="AP100" t="n">
-        <v>1603.333333333333</v>
+        <v>1802.333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/results_final.xlsx
+++ b/data/results/results_final.xlsx
@@ -15545,22 +15545,22 @@
         <v>8.441558441558438</v>
       </c>
       <c r="J2" t="n">
-        <v>0.649350649350644</v>
+        <v>-12.98701298701299</v>
       </c>
       <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.649350649350644</v>
+        <v>-12.98701298701299</v>
       </c>
       <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0.649350649350644</v>
@@ -15668,7 +15668,7 @@
         <v>123</v>
       </c>
       <c r="G3" t="n">
-        <v>7963.311458688903</v>
+        <v>7963.311458688906</v>
       </c>
       <c r="H3" t="n">
         <v>-1592.961592050435</v>
@@ -15677,31 +15677,31 @@
         <v>1544.424961343912</v>
       </c>
       <c r="J3" t="n">
-        <v>1301.103489972913</v>
+        <v>1176.283709037698</v>
       </c>
       <c r="K3" t="n">
-        <v>1261</v>
+        <v>1595</v>
       </c>
       <c r="L3" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="M3" t="n">
-        <v>1493.970218266515</v>
+        <v>1293.677401537496</v>
       </c>
       <c r="N3" t="n">
-        <v>608</v>
+        <v>1156</v>
       </c>
       <c r="O3" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P3" t="n">
-        <v>540.7983817472436</v>
+        <v>448.5959125863282</v>
       </c>
       <c r="Q3" t="n">
-        <v>632</v>
+        <v>534</v>
       </c>
       <c r="R3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" t="n">
         <v>652.1147873810384</v>
@@ -15809,22 +15809,22 @@
         <v>88.96103896103897</v>
       </c>
       <c r="J4" t="n">
-        <v>-12.98701298701298</v>
+        <v>-155.8441558441558</v>
       </c>
       <c r="K4" t="n">
         <v>88</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-12.98701298701298</v>
+        <v>-155.8441558441558</v>
       </c>
       <c r="N4" t="n">
         <v>168</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>-12.98701298701298</v>
@@ -15941,28 +15941,28 @@
         <v>201.7385839966485</v>
       </c>
       <c r="J5" t="n">
-        <v>75.47130289065773</v>
+        <v>-100.0418935902807</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>101.2777545035609</v>
+        <v>69.25010473397568</v>
       </c>
       <c r="N5" t="n">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="O5" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="P5" t="n">
         <v>138.0812735651445</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R5" t="n">
         <v>10.5</v>
@@ -16064,7 +16064,7 @@
         <v>1838</v>
       </c>
       <c r="G6" t="n">
-        <v>116852.9014155719</v>
+        <v>116852.9014155718</v>
       </c>
       <c r="H6" t="n">
         <v>-39614.99331345373</v>
@@ -16073,31 +16073,31 @@
         <v>21188.2194550024</v>
       </c>
       <c r="J6" t="n">
-        <v>15486.77190767362</v>
+        <v>13337.66861663422</v>
       </c>
       <c r="K6" t="n">
-        <v>35674</v>
+        <v>46383</v>
       </c>
       <c r="L6" t="n">
-        <v>544.5</v>
+        <v>516</v>
       </c>
       <c r="M6" t="n">
-        <v>17929.17399333959</v>
+        <v>14841.207011707</v>
       </c>
       <c r="N6" t="n">
-        <v>33383</v>
+        <v>56963</v>
       </c>
       <c r="O6" t="n">
-        <v>544.5</v>
+        <v>510.5</v>
       </c>
       <c r="P6" t="n">
-        <v>3118.317154580076</v>
+        <v>2586.86757462735</v>
       </c>
       <c r="Q6" t="n">
-        <v>21426</v>
+        <v>21695</v>
       </c>
       <c r="R6" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="S6" t="n">
         <v>4607.013381387233</v>
@@ -16205,22 +16205,22 @@
         <v>321.4285714285716</v>
       </c>
       <c r="J7" t="n">
-        <v>-102.5974025974024</v>
+        <v>-623.3766233766233</v>
       </c>
       <c r="K7" t="n">
         <v>384</v>
       </c>
       <c r="L7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-102.5974025974024</v>
+        <v>-623.3766233766233</v>
       </c>
       <c r="N7" t="n">
         <v>656</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>-102.5974025974024</v>
@@ -16337,22 +16337,22 @@
         <v>1113.950565563469</v>
       </c>
       <c r="J8" t="n">
-        <v>-8.064516129032256</v>
+        <v>-1394.051110180143</v>
       </c>
       <c r="K8" t="n">
-        <v>1840</v>
+        <v>2008</v>
       </c>
       <c r="L8" t="n">
-        <v>50.66666666666666</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="M8" t="n">
-        <v>43.54838709677421</v>
+        <v>-341.2442396313367</v>
       </c>
       <c r="N8" t="n">
-        <v>2222</v>
+        <v>2270</v>
       </c>
       <c r="O8" t="n">
-        <v>50.66666666666666</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="P8" t="n">
         <v>348.2823627984918</v>
@@ -16469,28 +16469,28 @@
         <v>240.9090909090909</v>
       </c>
       <c r="J9" t="n">
-        <v>-31.81818181818181</v>
+        <v>-326.6233766233767</v>
       </c>
       <c r="K9" t="n">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="L9" t="n">
-        <v>8.333333333333332</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>-31.81818181818181</v>
+        <v>-82.46753246753255</v>
       </c>
       <c r="N9" t="n">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="O9" t="n">
-        <v>8.333333333333332</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>3.896103896103897</v>
       </c>
       <c r="Q9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R9" t="n">
         <v>8.333333333333332</v>
@@ -16589,115 +16589,115 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>5702</v>
+        <v>1958</v>
       </c>
       <c r="G10" t="n">
-        <v>317826.2813319067</v>
+        <v>118655.1180103633</v>
       </c>
       <c r="H10" t="n">
-        <v>-56052.45235722861</v>
+        <v>9095.166184411004</v>
       </c>
       <c r="I10" t="n">
-        <v>65677.20896116752</v>
+        <v>28493.78242068953</v>
       </c>
       <c r="J10" t="n">
-        <v>74162.76773134076</v>
+        <v>20653.21613672486</v>
       </c>
       <c r="K10" t="n">
-        <v>99023</v>
+        <v>37259</v>
       </c>
       <c r="L10" t="n">
-        <v>1387.666666666667</v>
+        <v>476.9999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>85297.91263783217</v>
+        <v>19263.8257000966</v>
       </c>
       <c r="N10" t="n">
-        <v>101524</v>
+        <v>42522</v>
       </c>
       <c r="O10" t="n">
-        <v>1387.666666666667</v>
+        <v>468.6666666666667</v>
       </c>
       <c r="P10" t="n">
-        <v>10202.8878155916</v>
+        <v>10880.42935926001</v>
       </c>
       <c r="Q10" t="n">
-        <v>55137</v>
+        <v>13074</v>
       </c>
       <c r="R10" t="n">
-        <v>605.6666666666666</v>
+        <v>368.6666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>17985.38436973347</v>
+        <v>7121.250746025772</v>
       </c>
       <c r="T10" t="n">
-        <v>51074</v>
+        <v>12651</v>
       </c>
       <c r="U10" t="n">
-        <v>783</v>
+        <v>342.6666666666667</v>
       </c>
       <c r="V10" t="n">
-        <v>74608.60067038119</v>
+        <v>18185.9674867935</v>
       </c>
       <c r="W10" t="n">
-        <v>43019</v>
+        <v>8458</v>
       </c>
       <c r="X10" t="n">
-        <v>1502.333333333333</v>
+        <v>512.6666666666665</v>
       </c>
       <c r="Y10" t="n">
-        <v>17985.38436973347</v>
+        <v>7121.250746025772</v>
       </c>
       <c r="Z10" t="n">
-        <v>51074</v>
+        <v>12651</v>
       </c>
       <c r="AA10" t="n">
-        <v>783</v>
+        <v>342.6666666666667</v>
       </c>
       <c r="AB10" t="n">
-        <v>17985.38436973347</v>
+        <v>7121.250746025772</v>
       </c>
       <c r="AC10" t="n">
-        <v>51074</v>
+        <v>12651</v>
       </c>
       <c r="AD10" t="n">
-        <v>783</v>
+        <v>342.6666666666667</v>
       </c>
       <c r="AE10" t="n">
-        <v>73490.29680040583</v>
+        <v>18762.72625519528</v>
       </c>
       <c r="AF10" t="n">
-        <v>37059</v>
+        <v>8566</v>
       </c>
       <c r="AG10" t="n">
-        <v>1399.666666666667</v>
+        <v>515</v>
       </c>
       <c r="AH10" t="n">
-        <v>71115.44492813846</v>
+        <v>18344.85103380314</v>
       </c>
       <c r="AI10" t="n">
-        <v>42851</v>
+        <v>8324</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1422.333333333333</v>
+        <v>507.6666666666665</v>
       </c>
       <c r="AK10" t="n">
-        <v>17985.38436973347</v>
+        <v>7121.250746025772</v>
       </c>
       <c r="AL10" t="n">
-        <v>51074</v>
+        <v>12651</v>
       </c>
       <c r="AM10" t="n">
-        <v>783</v>
+        <v>342.6666666666667</v>
       </c>
       <c r="AN10" t="n">
-        <v>74945.96994447187</v>
+        <v>19116.12718278004</v>
       </c>
       <c r="AO10" t="n">
-        <v>35612</v>
+        <v>8445</v>
       </c>
       <c r="AP10" t="n">
-        <v>1453</v>
+        <v>511.3333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -16733,22 +16733,22 @@
         <v>20.91503267973857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6535947712418277</v>
+        <v>-3.921568627450978</v>
       </c>
       <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.6535947712418277</v>
+        <v>20.91503267973857</v>
       </c>
       <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0.6535947712418277</v>
@@ -16856,40 +16856,40 @@
         <v>118</v>
       </c>
       <c r="G12" t="n">
-        <v>7535.993377064893</v>
+        <v>7535.993377064896</v>
       </c>
       <c r="H12" t="n">
-        <v>-991.5918108859212</v>
+        <v>-991.5918108859215</v>
       </c>
       <c r="I12" t="n">
         <v>1713.28334907781</v>
       </c>
       <c r="J12" t="n">
-        <v>1263.462416878773</v>
+        <v>1178.31645168702</v>
       </c>
       <c r="K12" t="n">
-        <v>1166</v>
+        <v>1575</v>
       </c>
       <c r="L12" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M12" t="n">
-        <v>1489.578098670164</v>
+        <v>1335.774040764887</v>
       </c>
       <c r="N12" t="n">
-        <v>513</v>
+        <v>973</v>
       </c>
       <c r="O12" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
-        <v>630.3423868054404</v>
+        <v>613.2794914049545</v>
       </c>
       <c r="Q12" t="n">
-        <v>625</v>
+        <v>484</v>
       </c>
       <c r="R12" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S12" t="n">
         <v>718.0509735786338</v>
@@ -16901,7 +16901,7 @@
         <v>41</v>
       </c>
       <c r="V12" t="n">
-        <v>1327.11323701746</v>
+        <v>1327.113237017461</v>
       </c>
       <c r="W12" t="n">
         <v>464</v>
@@ -16928,7 +16928,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>1256.477273835746</v>
+        <v>1256.477273835747</v>
       </c>
       <c r="AF12" t="n">
         <v>472</v>
@@ -16937,7 +16937,7 @@
         <v>70</v>
       </c>
       <c r="AH12" t="n">
-        <v>1309.379849328915</v>
+        <v>1309.379849328916</v>
       </c>
       <c r="AI12" t="n">
         <v>468</v>
@@ -16997,22 +16997,22 @@
         <v>252.9411764705883</v>
       </c>
       <c r="J13" t="n">
-        <v>-13.07189542483662</v>
+        <v>-47.05882352941179</v>
       </c>
       <c r="K13" t="n">
         <v>76</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-13.07189542483662</v>
+        <v>252.9411764705883</v>
       </c>
       <c r="N13" t="n">
         <v>168</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>-13.07189542483662</v>
@@ -17129,28 +17129,28 @@
         <v>1498.624272690941</v>
       </c>
       <c r="J14" t="n">
-        <v>1202.267662320907</v>
+        <v>1086.201881169736</v>
       </c>
       <c r="K14" t="n">
-        <v>457</v>
+        <v>778</v>
       </c>
       <c r="L14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M14" t="n">
-        <v>1688.671128859183</v>
+        <v>1869.948801218449</v>
       </c>
       <c r="N14" t="n">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="O14" t="n">
-        <v>25</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1725.504356774005</v>
+        <v>1710.471677035443</v>
       </c>
       <c r="Q14" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R14" t="n">
         <v>25</v>
@@ -17261,34 +17261,34 @@
         <v>25249.57539583741</v>
       </c>
       <c r="J15" t="n">
-        <v>15202.57660615714</v>
+        <v>13466.69546781986</v>
       </c>
       <c r="K15" t="n">
-        <v>31701</v>
+        <v>41881</v>
       </c>
       <c r="L15" t="n">
-        <v>533.5</v>
+        <v>465</v>
       </c>
       <c r="M15" t="n">
-        <v>17637.21379332227</v>
+        <v>14920.25114399474</v>
       </c>
       <c r="N15" t="n">
-        <v>29042</v>
+        <v>49373</v>
       </c>
       <c r="O15" t="n">
-        <v>533.5</v>
+        <v>460.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.796683440258</v>
+        <v>3428.560351759212</v>
       </c>
       <c r="Q15" t="n">
-        <v>20016</v>
+        <v>20166</v>
       </c>
       <c r="R15" t="n">
-        <v>193.5</v>
+        <v>215</v>
       </c>
       <c r="S15" t="n">
-        <v>5024.964390869794</v>
+        <v>5024.964390869792</v>
       </c>
       <c r="T15" t="n">
         <v>17942</v>
@@ -17306,7 +17306,7 @@
         <v>612</v>
       </c>
       <c r="Y15" t="n">
-        <v>5024.964390869794</v>
+        <v>5024.964390869792</v>
       </c>
       <c r="Z15" t="n">
         <v>17942</v>
@@ -17315,7 +17315,7 @@
         <v>265</v>
       </c>
       <c r="AB15" t="n">
-        <v>5024.964390869794</v>
+        <v>5024.964390869792</v>
       </c>
       <c r="AC15" t="n">
         <v>17942</v>
@@ -17342,7 +17342,7 @@
         <v>589.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>5024.964390869794</v>
+        <v>5024.964390869792</v>
       </c>
       <c r="AL15" t="n">
         <v>17942</v>
@@ -17393,22 +17393,22 @@
         <v>1017.64705882353</v>
       </c>
       <c r="J16" t="n">
-        <v>-103.2679738562092</v>
+        <v>-188.2352941176471</v>
       </c>
       <c r="K16" t="n">
         <v>336</v>
       </c>
       <c r="L16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-103.2679738562092</v>
+        <v>1017.64705882353</v>
       </c>
       <c r="N16" t="n">
         <v>656</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>-103.2679738562092</v>
@@ -17525,28 +17525,28 @@
         <v>16750.62178040852</v>
       </c>
       <c r="J17" t="n">
-        <v>13000.42538729502</v>
+        <v>12328.63538096991</v>
       </c>
       <c r="K17" t="n">
-        <v>4152</v>
+        <v>7020</v>
       </c>
       <c r="L17" t="n">
-        <v>166.6666666666667</v>
+        <v>142.6666666666667</v>
       </c>
       <c r="M17" t="n">
-        <v>19091.44127559546</v>
+        <v>21284.79990937155</v>
       </c>
       <c r="N17" t="n">
-        <v>7506</v>
+        <v>7602</v>
       </c>
       <c r="O17" t="n">
-        <v>166.6666666666667</v>
+        <v>138.6666666666667</v>
       </c>
       <c r="P17" t="n">
-        <v>19396.39594563552</v>
+        <v>19218.61816785774</v>
       </c>
       <c r="Q17" t="n">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="R17" t="n">
         <v>166.6666666666667</v>
@@ -17651,40 +17651,40 @@
         <v>2080.392156862745</v>
       </c>
       <c r="H18" t="n">
-        <v>784.967320261438</v>
+        <v>784.9673202614381</v>
       </c>
       <c r="I18" t="n">
         <v>774.5098039215687</v>
       </c>
       <c r="J18" t="n">
-        <v>-27.45098039215686</v>
+        <v>-186.9281045751634</v>
       </c>
       <c r="K18" t="n">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="L18" t="n">
-        <v>10.66666666666667</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>-27.45098039215686</v>
+        <v>401.3071895424837</v>
       </c>
       <c r="N18" t="n">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="O18" t="n">
-        <v>10.66666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.6535947712418175</v>
+        <v>-103.2679738562091</v>
       </c>
       <c r="Q18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R18" t="n">
         <v>10.66666666666667</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.6535947712418175</v>
+        <v>-0.6535947712418162</v>
       </c>
       <c r="T18" t="n">
         <v>50</v>
@@ -17702,7 +17702,7 @@
         <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.6535947712418175</v>
+        <v>-0.6535947712418162</v>
       </c>
       <c r="Z18" t="n">
         <v>50</v>
@@ -17711,7 +17711,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.6535947712418175</v>
+        <v>-0.6535947712418162</v>
       </c>
       <c r="AC18" t="n">
         <v>50</v>
@@ -17738,7 +17738,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.6535947712418175</v>
+        <v>-0.6535947712418162</v>
       </c>
       <c r="AL18" t="n">
         <v>50</v>
@@ -17777,115 +17777,115 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>5703</v>
+        <v>1937</v>
       </c>
       <c r="G19" t="n">
-        <v>315630.5512446067</v>
+        <v>114972.5225956539</v>
       </c>
       <c r="H19" t="n">
-        <v>-40600.44848583425</v>
+        <v>1012.221867627907</v>
       </c>
       <c r="I19" t="n">
-        <v>80276.18903277497</v>
+        <v>37929.78885414683</v>
       </c>
       <c r="J19" t="n">
-        <v>75486.35170062495</v>
+        <v>23739.86266643105</v>
       </c>
       <c r="K19" t="n">
-        <v>94876</v>
+        <v>37503</v>
       </c>
       <c r="L19" t="n">
-        <v>1382.333333333333</v>
+        <v>413.9999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>85708.32486280963</v>
+        <v>23139.40905596395</v>
       </c>
       <c r="N19" t="n">
-        <v>97193</v>
+        <v>39518</v>
       </c>
       <c r="O19" t="n">
-        <v>1382.333333333333</v>
+        <v>396.3333333333333</v>
       </c>
       <c r="P19" t="n">
-        <v>12796.24638658931</v>
+        <v>14670.10002847108</v>
       </c>
       <c r="Q19" t="n">
-        <v>55433</v>
+        <v>12833</v>
       </c>
       <c r="R19" t="n">
-        <v>620.3333333333333</v>
+        <v>363.3333333333333</v>
       </c>
       <c r="S19" t="n">
-        <v>19840.22021227266</v>
+        <v>9081.688341691199</v>
       </c>
       <c r="T19" t="n">
-        <v>50215</v>
+        <v>12648</v>
       </c>
       <c r="U19" t="n">
-        <v>830.6666666666666</v>
+        <v>366.3333333333333</v>
       </c>
       <c r="V19" t="n">
-        <v>77395.2396341929</v>
+        <v>22794.39097990909</v>
       </c>
       <c r="W19" t="n">
-        <v>45370</v>
+        <v>9896</v>
       </c>
       <c r="X19" t="n">
-        <v>1637.666666666667</v>
+        <v>526.9999999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>19840.22021227266</v>
+        <v>9081.688341691199</v>
       </c>
       <c r="Z19" t="n">
-        <v>50215</v>
+        <v>12648</v>
       </c>
       <c r="AA19" t="n">
-        <v>830.6666666666666</v>
+        <v>366.3333333333333</v>
       </c>
       <c r="AB19" t="n">
-        <v>19840.22021227266</v>
+        <v>9081.688341691199</v>
       </c>
       <c r="AC19" t="n">
-        <v>50215</v>
+        <v>12648</v>
       </c>
       <c r="AD19" t="n">
-        <v>830.6666666666666</v>
+        <v>366.3333333333333</v>
       </c>
       <c r="AE19" t="n">
-        <v>71818.44811249287</v>
+        <v>22390.20004288453</v>
       </c>
       <c r="AF19" t="n">
-        <v>39628</v>
+        <v>9581</v>
       </c>
       <c r="AG19" t="n">
-        <v>1435</v>
+        <v>459.9999999999999</v>
       </c>
       <c r="AH19" t="n">
-        <v>73607.19461798306</v>
+        <v>22967.98525863451</v>
       </c>
       <c r="AI19" t="n">
-        <v>46607</v>
+        <v>9663</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1588</v>
+        <v>520.6666666666666</v>
       </c>
       <c r="AK19" t="n">
-        <v>19840.22021227266</v>
+        <v>9081.688341691199</v>
       </c>
       <c r="AL19" t="n">
-        <v>50215</v>
+        <v>12648</v>
       </c>
       <c r="AM19" t="n">
-        <v>830.6666666666666</v>
+        <v>366.3333333333333</v>
       </c>
       <c r="AN19" t="n">
-        <v>72786.8857642971</v>
+        <v>22395.6918604127</v>
       </c>
       <c r="AO19" t="n">
-        <v>36687</v>
+        <v>8840</v>
       </c>
       <c r="AP19" t="n">
-        <v>1445.666666666667</v>
+        <v>455.3333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -17921,22 +17921,22 @@
         <v>6.081081081081085</v>
       </c>
       <c r="J20" t="n">
-        <v>-18.91891891891892</v>
+        <v>-8.108108108108102</v>
       </c>
       <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
       <c r="M20" t="n">
-        <v>-18.91891891891892</v>
+        <v>30.40540540540541</v>
       </c>
       <c r="N20" t="n">
+        <v>26</v>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>-18.91891891891892</v>
@@ -18044,43 +18044,43 @@
         <v>117</v>
       </c>
       <c r="G21" t="n">
-        <v>7406.310929919165</v>
+        <v>7406.310929919166</v>
       </c>
       <c r="H21" t="n">
-        <v>-66.55920654711932</v>
+        <v>-66.55920654711935</v>
       </c>
       <c r="I21" t="n">
         <v>1914.542564420619</v>
       </c>
       <c r="J21" t="n">
-        <v>1309.868978445684</v>
+        <v>1140.483334963853</v>
       </c>
       <c r="K21" t="n">
-        <v>1024</v>
+        <v>1584</v>
       </c>
       <c r="L21" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M21" t="n">
-        <v>1634.771272956685</v>
+        <v>1338.324215529772</v>
       </c>
       <c r="N21" t="n">
-        <v>410</v>
+        <v>853</v>
       </c>
       <c r="O21" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
-        <v>731.6777675029182</v>
+        <v>826.4291159490692</v>
       </c>
       <c r="Q21" t="n">
-        <v>562</v>
+        <v>454</v>
       </c>
       <c r="R21" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S21" t="n">
-        <v>934.9051129849787</v>
+        <v>934.9051129849785</v>
       </c>
       <c r="T21" t="n">
         <v>425</v>
@@ -18098,7 +18098,7 @@
         <v>71</v>
       </c>
       <c r="Y21" t="n">
-        <v>934.9051129849787</v>
+        <v>934.9051129849785</v>
       </c>
       <c r="Z21" t="n">
         <v>425</v>
@@ -18107,7 +18107,7 @@
         <v>47</v>
       </c>
       <c r="AB21" t="n">
-        <v>934.9051129849787</v>
+        <v>934.9051129849785</v>
       </c>
       <c r="AC21" t="n">
         <v>425</v>
@@ -18125,7 +18125,7 @@
         <v>64</v>
       </c>
       <c r="AH21" t="n">
-        <v>1529.94722756609</v>
+        <v>1529.947227566091</v>
       </c>
       <c r="AI21" t="n">
         <v>441</v>
@@ -18134,7 +18134,7 @@
         <v>71</v>
       </c>
       <c r="AK21" t="n">
-        <v>934.9051129849787</v>
+        <v>934.9051129849785</v>
       </c>
       <c r="AL21" t="n">
         <v>425</v>
@@ -18185,22 +18185,22 @@
         <v>60.81081081081086</v>
       </c>
       <c r="J22" t="n">
-        <v>-243.2432432432432</v>
+        <v>-97.29729729729725</v>
       </c>
       <c r="K22" t="n">
         <v>152</v>
       </c>
       <c r="L22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-243.2432432432432</v>
+        <v>381.0810810810811</v>
       </c>
       <c r="N22" t="n">
         <v>336</v>
       </c>
       <c r="O22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>-243.2432432432432</v>
@@ -18317,28 +18317,28 @@
         <v>1358.576049167447</v>
       </c>
       <c r="J23" t="n">
-        <v>1057.407676493698</v>
+        <v>1053.331826450106</v>
       </c>
       <c r="K23" t="n">
-        <v>506</v>
+        <v>830</v>
       </c>
       <c r="L23" t="n">
-        <v>28</v>
+        <v>22.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1558.214128106601</v>
+        <v>1937.769489920027</v>
       </c>
       <c r="N23" t="n">
-        <v>700</v>
+        <v>815</v>
       </c>
       <c r="O23" t="n">
-        <v>28</v>
+        <v>21.5</v>
       </c>
       <c r="P23" t="n">
         <v>1592.499219649757</v>
       </c>
       <c r="Q23" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R23" t="n">
         <v>28</v>
@@ -18443,40 +18443,40 @@
         <v>104717.6095259068</v>
       </c>
       <c r="H24" t="n">
-        <v>-10469.46327708138</v>
+        <v>-10469.46327708139</v>
       </c>
       <c r="I24" t="n">
-        <v>27832.70150891714</v>
+        <v>27832.70150891713</v>
       </c>
       <c r="J24" t="n">
-        <v>15550.23634717486</v>
+        <v>14367.05724533286</v>
       </c>
       <c r="K24" t="n">
-        <v>29053</v>
+        <v>41499</v>
       </c>
       <c r="L24" t="n">
-        <v>544.5</v>
+        <v>507.5</v>
       </c>
       <c r="M24" t="n">
-        <v>18627.43234435471</v>
+        <v>16655.61451935366</v>
       </c>
       <c r="N24" t="n">
-        <v>22900</v>
+        <v>45097</v>
       </c>
       <c r="O24" t="n">
-        <v>544.5</v>
+        <v>501</v>
       </c>
       <c r="P24" t="n">
-        <v>2911.88612401433</v>
+        <v>4089.018684517193</v>
       </c>
       <c r="Q24" t="n">
-        <v>18451</v>
+        <v>19166</v>
       </c>
       <c r="R24" t="n">
-        <v>221.5</v>
+        <v>227.5</v>
       </c>
       <c r="S24" t="n">
-        <v>6137.857214427046</v>
+        <v>6137.857214427045</v>
       </c>
       <c r="T24" t="n">
         <v>14460</v>
@@ -18494,7 +18494,7 @@
         <v>554.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>6137.857214427046</v>
+        <v>6137.857214427045</v>
       </c>
       <c r="Z24" t="n">
         <v>14460</v>
@@ -18503,7 +18503,7 @@
         <v>282</v>
       </c>
       <c r="AB24" t="n">
-        <v>6137.857214427046</v>
+        <v>6137.857214427045</v>
       </c>
       <c r="AC24" t="n">
         <v>14460</v>
@@ -18530,7 +18530,7 @@
         <v>538</v>
       </c>
       <c r="AK24" t="n">
-        <v>6137.857214427046</v>
+        <v>6137.857214427045</v>
       </c>
       <c r="AL24" t="n">
         <v>14460</v>
@@ -18581,22 +18581,22 @@
         <v>139.864864864865</v>
       </c>
       <c r="J25" t="n">
-        <v>-995.9459459459458</v>
+        <v>-389.1891891891891</v>
       </c>
       <c r="K25" t="n">
         <v>672</v>
       </c>
       <c r="L25" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-995.9459459459458</v>
+        <v>1572.297297297297</v>
       </c>
       <c r="N25" t="n">
         <v>1312</v>
       </c>
       <c r="O25" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>-995.9459459459458</v>
@@ -18713,28 +18713,28 @@
         <v>14928.82344710302</v>
       </c>
       <c r="J26" t="n">
-        <v>11252.52106945655</v>
+        <v>11770.80790467887</v>
       </c>
       <c r="K26" t="n">
-        <v>4961</v>
+        <v>7795</v>
       </c>
       <c r="L26" t="n">
-        <v>193</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="M26" t="n">
-        <v>17518.94878749717</v>
+        <v>22238.49979011269</v>
       </c>
       <c r="N26" t="n">
-        <v>8644</v>
+        <v>8720</v>
       </c>
       <c r="O26" t="n">
-        <v>193</v>
+        <v>138.6666666666667</v>
       </c>
       <c r="P26" t="n">
         <v>17713.56517808131</v>
       </c>
       <c r="Q26" t="n">
-        <v>2070</v>
+        <v>2062</v>
       </c>
       <c r="R26" t="n">
         <v>193</v>
@@ -18845,28 +18845,28 @@
         <v>372.9729729729731</v>
       </c>
       <c r="J27" t="n">
-        <v>-393.9189189189188</v>
+        <v>-273.6486486486486</v>
       </c>
       <c r="K27" t="n">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="L27" t="n">
-        <v>15.66666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M27" t="n">
-        <v>-393.9189189189188</v>
+        <v>601.3513513513514</v>
       </c>
       <c r="N27" t="n">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="O27" t="n">
-        <v>15.66666666666667</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
         <v>-409.4594594594594</v>
       </c>
       <c r="Q27" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R27" t="n">
         <v>15.66666666666667</v>
@@ -18881,7 +18881,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="V27" t="n">
-        <v>-93.24324324324326</v>
+        <v>-93.24324324324327</v>
       </c>
       <c r="W27" t="n">
         <v>92</v>
@@ -18908,7 +18908,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="AE27" t="n">
-        <v>-89.86486486486487</v>
+        <v>-89.86486486486488</v>
       </c>
       <c r="AF27" t="n">
         <v>86</v>
@@ -18917,7 +18917,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>-93.24324324324326</v>
+        <v>-93.24324324324327</v>
       </c>
       <c r="AI27" t="n">
         <v>92</v>
@@ -18935,7 +18935,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="AN27" t="n">
-        <v>-89.86486486486487</v>
+        <v>-89.86486486486488</v>
       </c>
       <c r="AO27" t="n">
         <v>86</v>
@@ -18965,115 +18965,115 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>6138</v>
+        <v>2233</v>
       </c>
       <c r="G28" t="n">
-        <v>345406.0441142712</v>
+        <v>134539.3699302227</v>
       </c>
       <c r="H28" t="n">
-        <v>25967.8724495749</v>
+        <v>16865.67427221142</v>
       </c>
       <c r="I28" t="n">
-        <v>100131.3172415004</v>
+        <v>49284.84307649995</v>
       </c>
       <c r="J28" t="n">
-        <v>77073.21724184664</v>
+        <v>22465.55664287207</v>
       </c>
       <c r="K28" t="n">
-        <v>102621</v>
+        <v>42796</v>
       </c>
       <c r="L28" t="n">
-        <v>1532.333333333333</v>
+        <v>502</v>
       </c>
       <c r="M28" t="n">
-        <v>90612.6301050637</v>
+        <v>22878.43050529484</v>
       </c>
       <c r="N28" t="n">
-        <v>101899</v>
+        <v>45593</v>
       </c>
       <c r="O28" t="n">
-        <v>1532.333333333333</v>
+        <v>484</v>
       </c>
       <c r="P28" t="n">
-        <v>14022.72925476548</v>
+        <v>13280.31568504447</v>
       </c>
       <c r="Q28" t="n">
-        <v>59254</v>
+        <v>14644</v>
       </c>
       <c r="R28" t="n">
-        <v>737</v>
+        <v>432</v>
       </c>
       <c r="S28" t="n">
-        <v>29367.41662515542</v>
+        <v>16299.68033673907</v>
       </c>
       <c r="T28" t="n">
-        <v>51083</v>
+        <v>13029</v>
       </c>
       <c r="U28" t="n">
-        <v>1020.666666666667</v>
+        <v>494.9999999999999</v>
       </c>
       <c r="V28" t="n">
-        <v>78728.69232419175</v>
+        <v>22228.59680878037</v>
       </c>
       <c r="W28" t="n">
-        <v>52673</v>
+        <v>11641</v>
       </c>
       <c r="X28" t="n">
-        <v>1513.666666666667</v>
+        <v>603</v>
       </c>
       <c r="Y28" t="n">
-        <v>29367.41662515542</v>
+        <v>16299.68033673907</v>
       </c>
       <c r="Z28" t="n">
-        <v>51083</v>
+        <v>13029</v>
       </c>
       <c r="AA28" t="n">
-        <v>1020.666666666667</v>
+        <v>494.9999999999999</v>
       </c>
       <c r="AB28" t="n">
-        <v>29367.41662515542</v>
+        <v>16299.68033673907</v>
       </c>
       <c r="AC28" t="n">
-        <v>51083</v>
+        <v>13029</v>
       </c>
       <c r="AD28" t="n">
-        <v>1020.666666666667</v>
+        <v>494.9999999999999</v>
       </c>
       <c r="AE28" t="n">
-        <v>74636.37029222513</v>
+        <v>20716.83234009195</v>
       </c>
       <c r="AF28" t="n">
-        <v>51419</v>
+        <v>12104</v>
       </c>
       <c r="AG28" t="n">
-        <v>1585.333333333333</v>
+        <v>555.3333333333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>75496.93732479739</v>
+        <v>22521.95901416264</v>
       </c>
       <c r="AI28" t="n">
-        <v>53757</v>
+        <v>11603</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1512</v>
+        <v>599.9999999999999</v>
       </c>
       <c r="AK28" t="n">
-        <v>29367.41662515542</v>
+        <v>16299.68033673907</v>
       </c>
       <c r="AL28" t="n">
-        <v>51083</v>
+        <v>13029</v>
       </c>
       <c r="AM28" t="n">
-        <v>1020.666666666667</v>
+        <v>494.9999999999999</v>
       </c>
       <c r="AN28" t="n">
-        <v>73176.27223432745</v>
+        <v>18890.07872854266</v>
       </c>
       <c r="AO28" t="n">
-        <v>47799</v>
+        <v>11092</v>
       </c>
       <c r="AP28" t="n">
-        <v>1539</v>
+        <v>510.6666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -19109,22 +19109,22 @@
         <v>31.46853146853147</v>
       </c>
       <c r="J29" t="n">
-        <v>-19.58041958041958</v>
+        <v>-8.391608391608399</v>
       </c>
       <c r="K29" t="n">
+        <v>18</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
       <c r="M29" t="n">
-        <v>-19.58041958041958</v>
+        <v>31.46853146853147</v>
       </c>
       <c r="N29" t="n">
+        <v>29</v>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>-19.58041958041958</v>
@@ -19232,40 +19232,40 @@
         <v>118</v>
       </c>
       <c r="G30" t="n">
-        <v>7451.364389368449</v>
+        <v>7451.364389368451</v>
       </c>
       <c r="H30" t="n">
-        <v>384.4470032401442</v>
+        <v>384.4470032401441</v>
       </c>
       <c r="I30" t="n">
         <v>1947.917265376293</v>
       </c>
       <c r="J30" t="n">
-        <v>1435.852967593438</v>
+        <v>1195.958605245554</v>
       </c>
       <c r="K30" t="n">
-        <v>1037</v>
+        <v>1783</v>
       </c>
       <c r="L30" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="M30" t="n">
-        <v>1817.228200305681</v>
+        <v>1508.518952663987</v>
       </c>
       <c r="N30" t="n">
-        <v>475</v>
+        <v>1063</v>
       </c>
       <c r="O30" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P30" t="n">
-        <v>931.1936447649098</v>
+        <v>1011.292966771099</v>
       </c>
       <c r="Q30" t="n">
-        <v>559</v>
+        <v>443</v>
       </c>
       <c r="R30" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="S30" t="n">
         <v>1031.598083575525</v>
@@ -19373,25 +19373,25 @@
         <v>394.4055944055945</v>
       </c>
       <c r="J31" t="n">
-        <v>-251.7482517482517</v>
+        <v>-100.6993006993007</v>
       </c>
       <c r="K31" t="n">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="L31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-251.7482517482517</v>
+        <v>394.4055944055945</v>
       </c>
       <c r="N31" t="n">
         <v>348</v>
       </c>
       <c r="O31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-251.7482517482517</v>
+        <v>-251.7482517482518</v>
       </c>
       <c r="Q31" t="n">
         <v>136</v>
@@ -19400,7 +19400,7 @@
         <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>-251.7482517482517</v>
+        <v>-251.7482517482518</v>
       </c>
       <c r="T31" t="n">
         <v>144</v>
@@ -19418,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-251.7482517482517</v>
+        <v>-251.7482517482518</v>
       </c>
       <c r="Z31" t="n">
         <v>144</v>
@@ -19427,7 +19427,7 @@
         <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>-251.7482517482517</v>
+        <v>-251.7482517482518</v>
       </c>
       <c r="AC31" t="n">
         <v>144</v>
@@ -19454,7 +19454,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>-251.7482517482517</v>
+        <v>-251.7482517482518</v>
       </c>
       <c r="AL31" t="n">
         <v>144</v>
@@ -19505,34 +19505,34 @@
         <v>1583.54011579818</v>
       </c>
       <c r="J32" t="n">
-        <v>1024.185089104444</v>
+        <v>1025.245319196932</v>
       </c>
       <c r="K32" t="n">
-        <v>494</v>
+        <v>844</v>
       </c>
       <c r="L32" t="n">
-        <v>28</v>
+        <v>22.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1513.132566358373</v>
+        <v>1828.607414091285</v>
       </c>
       <c r="N32" t="n">
-        <v>701</v>
+        <v>811</v>
       </c>
       <c r="O32" t="n">
-        <v>28</v>
+        <v>21.5</v>
       </c>
       <c r="P32" t="n">
         <v>1547.488532972404</v>
       </c>
       <c r="Q32" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R32" t="n">
         <v>28</v>
       </c>
       <c r="S32" t="n">
-        <v>953.567937438905</v>
+        <v>953.5679374389051</v>
       </c>
       <c r="T32" t="n">
         <v>113</v>
@@ -19550,7 +19550,7 @@
         <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.567937438905</v>
+        <v>953.5679374389051</v>
       </c>
       <c r="Z32" t="n">
         <v>113</v>
@@ -19559,7 +19559,7 @@
         <v>24</v>
       </c>
       <c r="AB32" t="n">
-        <v>953.567937438905</v>
+        <v>953.5679374389051</v>
       </c>
       <c r="AC32" t="n">
         <v>113</v>
@@ -19586,7 +19586,7 @@
         <v>25</v>
       </c>
       <c r="AK32" t="n">
-        <v>953.567937438905</v>
+        <v>953.5679374389051</v>
       </c>
       <c r="AL32" t="n">
         <v>113</v>
@@ -19595,7 +19595,7 @@
         <v>24</v>
       </c>
       <c r="AN32" t="n">
-        <v>1512.607150913602</v>
+        <v>1512.607150913603</v>
       </c>
       <c r="AO32" t="n">
         <v>90</v>
@@ -19631,40 +19631,40 @@
         <v>114389.3776313278</v>
       </c>
       <c r="H33" t="n">
-        <v>-6522.367423677693</v>
+        <v>-6522.367423677694</v>
       </c>
       <c r="I33" t="n">
         <v>30650.21296045036</v>
       </c>
       <c r="J33" t="n">
-        <v>15814.68146641573</v>
+        <v>14164.15463319827</v>
       </c>
       <c r="K33" t="n">
-        <v>31190</v>
+        <v>48716</v>
       </c>
       <c r="L33" t="n">
-        <v>539.5</v>
+        <v>490</v>
       </c>
       <c r="M33" t="n">
-        <v>19214.36311971279</v>
+        <v>17086.07333581725</v>
       </c>
       <c r="N33" t="n">
-        <v>25669</v>
+        <v>51804</v>
       </c>
       <c r="O33" t="n">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="P33" t="n">
-        <v>5432.319332236305</v>
+        <v>6067.21791748662</v>
       </c>
       <c r="Q33" t="n">
-        <v>20321</v>
+        <v>20685</v>
       </c>
       <c r="R33" t="n">
-        <v>251.5</v>
+        <v>232</v>
       </c>
       <c r="S33" t="n">
-        <v>6790.921441256213</v>
+        <v>6790.921441256212</v>
       </c>
       <c r="T33" t="n">
         <v>15899</v>
@@ -19682,7 +19682,7 @@
         <v>634.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>6790.921441256213</v>
+        <v>6790.921441256212</v>
       </c>
       <c r="Z33" t="n">
         <v>15899</v>
@@ -19691,7 +19691,7 @@
         <v>290.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>6790.921441256213</v>
+        <v>6790.921441256212</v>
       </c>
       <c r="AC33" t="n">
         <v>15899</v>
@@ -19718,7 +19718,7 @@
         <v>610</v>
       </c>
       <c r="AK33" t="n">
-        <v>6790.921441256213</v>
+        <v>6790.921441256212</v>
       </c>
       <c r="AL33" t="n">
         <v>15899</v>
@@ -19769,22 +19769,22 @@
         <v>1576.923076923077</v>
       </c>
       <c r="J34" t="n">
-        <v>-1030.769230769231</v>
+        <v>-402.7972027972027</v>
       </c>
       <c r="K34" t="n">
-        <v>816</v>
+        <v>960</v>
       </c>
       <c r="L34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1030.769230769231</v>
+        <v>1627.272727272727</v>
       </c>
       <c r="N34" t="n">
-        <v>1360</v>
+        <v>1328</v>
       </c>
       <c r="O34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>-1030.769230769231</v>
@@ -19901,28 +19901,28 @@
         <v>17865.01616662907</v>
       </c>
       <c r="J35" t="n">
-        <v>10867.8096097451</v>
+        <v>11435.61921949019</v>
       </c>
       <c r="K35" t="n">
-        <v>4948</v>
+        <v>7974</v>
       </c>
       <c r="L35" t="n">
-        <v>193</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="M35" t="n">
-        <v>16973.26866681705</v>
+        <v>20913.15136476427</v>
       </c>
       <c r="N35" t="n">
-        <v>8668</v>
+        <v>8775</v>
       </c>
       <c r="O35" t="n">
-        <v>193</v>
+        <v>138.6666666666667</v>
       </c>
       <c r="P35" t="n">
         <v>17165.21542973156</v>
       </c>
       <c r="Q35" t="n">
-        <v>2070</v>
+        <v>2062</v>
       </c>
       <c r="R35" t="n">
         <v>193</v>
@@ -20033,28 +20033,28 @@
         <v>937.0629370629371</v>
       </c>
       <c r="J36" t="n">
-        <v>-437.7622377622378</v>
+        <v>-279.020979020979</v>
       </c>
       <c r="K36" t="n">
-        <v>500</v>
+        <v>573</v>
       </c>
       <c r="L36" t="n">
-        <v>15.66666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M36" t="n">
-        <v>-437.7622377622378</v>
+        <v>259.4405594405595</v>
       </c>
       <c r="N36" t="n">
-        <v>646</v>
+        <v>697</v>
       </c>
       <c r="O36" t="n">
-        <v>15.66666666666667</v>
+        <v>4</v>
       </c>
       <c r="P36" t="n">
         <v>-443.3566433566434</v>
       </c>
       <c r="Q36" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R36" t="n">
         <v>15.66666666666667</v>
@@ -20153,115 +20153,115 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>6443</v>
+        <v>2635</v>
       </c>
       <c r="G37" t="n">
-        <v>368919.8722709327</v>
+        <v>166061.2864955362</v>
       </c>
       <c r="H37" t="n">
-        <v>28179.41350482457</v>
+        <v>20868.84833395886</v>
       </c>
       <c r="I37" t="n">
-        <v>101537.533899169</v>
+        <v>52941.50508805441</v>
       </c>
       <c r="J37" t="n">
-        <v>81695.15140372702</v>
+        <v>26111.98981296002</v>
       </c>
       <c r="K37" t="n">
-        <v>101350</v>
+        <v>57890</v>
       </c>
       <c r="L37" t="n">
-        <v>1619</v>
+        <v>589.3333333333333</v>
       </c>
       <c r="M37" t="n">
-        <v>90375.47815090739</v>
+        <v>26801.98096449862</v>
       </c>
       <c r="N37" t="n">
-        <v>101916</v>
+        <v>58309</v>
       </c>
       <c r="O37" t="n">
-        <v>1619.333333333333</v>
+        <v>556.6666666666666</v>
       </c>
       <c r="P37" t="n">
-        <v>18688.50259737589</v>
+        <v>16090.9009658746</v>
       </c>
       <c r="Q37" t="n">
-        <v>63171</v>
+        <v>19187</v>
       </c>
       <c r="R37" t="n">
-        <v>811.3333333333333</v>
+        <v>463.6666666666667</v>
       </c>
       <c r="S37" t="n">
-        <v>32292.45937793215</v>
+        <v>19135.72373599634</v>
       </c>
       <c r="T37" t="n">
-        <v>53157</v>
+        <v>15808</v>
       </c>
       <c r="U37" t="n">
-        <v>1107</v>
+        <v>582.3333333333334</v>
       </c>
       <c r="V37" t="n">
-        <v>64088.54998840435</v>
+        <v>26972.39280424124</v>
       </c>
       <c r="W37" t="n">
-        <v>53901</v>
+        <v>18946</v>
       </c>
       <c r="X37" t="n">
-        <v>1517.666666666667</v>
+        <v>736</v>
       </c>
       <c r="Y37" t="n">
-        <v>32292.45937793215</v>
+        <v>19135.72373599634</v>
       </c>
       <c r="Z37" t="n">
-        <v>53157</v>
+        <v>15808</v>
       </c>
       <c r="AA37" t="n">
-        <v>1107</v>
+        <v>582.3333333333334</v>
       </c>
       <c r="AB37" t="n">
-        <v>32292.45937793215</v>
+        <v>19135.72373599634</v>
       </c>
       <c r="AC37" t="n">
-        <v>53157</v>
+        <v>15808</v>
       </c>
       <c r="AD37" t="n">
-        <v>1107</v>
+        <v>582.3333333333334</v>
       </c>
       <c r="AE37" t="n">
-        <v>65334.78425726885</v>
+        <v>24958.72547120498</v>
       </c>
       <c r="AF37" t="n">
-        <v>56633</v>
+        <v>19776</v>
       </c>
       <c r="AG37" t="n">
-        <v>1582.333333333333</v>
+        <v>673.9999999999999</v>
       </c>
       <c r="AH37" t="n">
-        <v>61712.91505839997</v>
+        <v>27258.52190662324</v>
       </c>
       <c r="AI37" t="n">
-        <v>61300</v>
+        <v>18903</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1533.666666666666</v>
+        <v>733.6666666666667</v>
       </c>
       <c r="AK37" t="n">
-        <v>32292.45937793215</v>
+        <v>19135.72373599634</v>
       </c>
       <c r="AL37" t="n">
-        <v>53157</v>
+        <v>15808</v>
       </c>
       <c r="AM37" t="n">
-        <v>1107</v>
+        <v>582.3333333333334</v>
       </c>
       <c r="AN37" t="n">
-        <v>64805.60001436001</v>
+        <v>24682.02189804731</v>
       </c>
       <c r="AO37" t="n">
-        <v>55651</v>
+        <v>18431</v>
       </c>
       <c r="AP37" t="n">
-        <v>1540.333333333333</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38">
@@ -20297,22 +20297,22 @@
         <v>10.14492753623188</v>
       </c>
       <c r="J38" t="n">
-        <v>-18.84057971014492</v>
+        <v>-2.898550724637683</v>
       </c>
       <c r="K38" t="n">
+        <v>18</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="n">
-        <v>2</v>
-      </c>
       <c r="M38" t="n">
-        <v>-18.84057971014492</v>
+        <v>32.60869565217391</v>
       </c>
       <c r="N38" t="n">
+        <v>29</v>
+      </c>
+      <c r="O38" t="n">
         <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>-18.84057971014492</v>
@@ -20420,40 +20420,40 @@
         <v>121</v>
       </c>
       <c r="G39" t="n">
-        <v>7687.744156124917</v>
+        <v>7687.74415612492</v>
       </c>
       <c r="H39" t="n">
-        <v>677.1591861164702</v>
+        <v>677.1591861164701</v>
       </c>
       <c r="I39" t="n">
         <v>2210.888276852956</v>
       </c>
       <c r="J39" t="n">
-        <v>1413.537245996451</v>
+        <v>1297.235675429074</v>
       </c>
       <c r="K39" t="n">
-        <v>1003</v>
+        <v>1715</v>
       </c>
       <c r="L39" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="M39" t="n">
-        <v>1771.914141915905</v>
+        <v>1521.811538591373</v>
       </c>
       <c r="N39" t="n">
-        <v>459</v>
+        <v>1034</v>
       </c>
       <c r="O39" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="P39" t="n">
-        <v>1035.431109599661</v>
+        <v>1012.196571043793</v>
       </c>
       <c r="Q39" t="n">
-        <v>514</v>
+        <v>439</v>
       </c>
       <c r="R39" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S39" t="n">
         <v>1048.879728997379</v>
@@ -20561,28 +20561,28 @@
         <v>178.9855072463768</v>
       </c>
       <c r="J40" t="n">
-        <v>-196.3768115942029</v>
+        <v>-39.85507246376812</v>
       </c>
       <c r="K40" t="n">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="L40" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="n">
-        <v>-196.3768115942029</v>
+        <v>360.1449275362319</v>
       </c>
       <c r="N40" t="n">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="O40" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
         <v>-229.7101449275362</v>
       </c>
       <c r="Q40" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R40" t="n">
         <v>11.5</v>
@@ -20693,28 +20693,28 @@
         <v>1494.74301805265</v>
       </c>
       <c r="J41" t="n">
-        <v>1024.84821515938</v>
+        <v>1056.054386267374</v>
       </c>
       <c r="K41" t="n">
-        <v>484</v>
+        <v>822</v>
       </c>
       <c r="L41" t="n">
-        <v>28</v>
+        <v>22.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1510.455331224111</v>
+        <v>1882.568468204008</v>
       </c>
       <c r="N41" t="n">
-        <v>697</v>
+        <v>835</v>
       </c>
       <c r="O41" t="n">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="P41" t="n">
         <v>1545.611946464877</v>
       </c>
       <c r="Q41" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R41" t="n">
         <v>28</v>
@@ -20825,34 +20825,34 @@
         <v>32995.93885245041</v>
       </c>
       <c r="J42" t="n">
-        <v>14259.63768873933</v>
+        <v>15199.25909088483</v>
       </c>
       <c r="K42" t="n">
-        <v>28827</v>
+        <v>46005</v>
       </c>
       <c r="L42" t="n">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="M42" t="n">
-        <v>17277.93916750369</v>
+        <v>17598.44023405556</v>
       </c>
       <c r="N42" t="n">
-        <v>22629</v>
+        <v>47274</v>
       </c>
       <c r="O42" t="n">
-        <v>485.5</v>
+        <v>463</v>
       </c>
       <c r="P42" t="n">
-        <v>6355.873547965607</v>
+        <v>6663.766043820619</v>
       </c>
       <c r="Q42" t="n">
-        <v>19069</v>
+        <v>19282</v>
       </c>
       <c r="R42" t="n">
-        <v>267</v>
+        <v>251.5</v>
       </c>
       <c r="S42" t="n">
-        <v>6965.459308420313</v>
+        <v>6965.459308420312</v>
       </c>
       <c r="T42" t="n">
         <v>14107</v>
@@ -20870,7 +20870,7 @@
         <v>546.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>6965.459308420313</v>
+        <v>6965.459308420312</v>
       </c>
       <c r="Z42" t="n">
         <v>14107</v>
@@ -20879,7 +20879,7 @@
         <v>298.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>6965.459308420313</v>
+        <v>6965.459308420312</v>
       </c>
       <c r="AC42" t="n">
         <v>14107</v>
@@ -20888,7 +20888,7 @@
         <v>298.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>15767.70973879079</v>
+        <v>15767.7097387908</v>
       </c>
       <c r="AF42" t="n">
         <v>41697</v>
@@ -20906,7 +20906,7 @@
         <v>532</v>
       </c>
       <c r="AK42" t="n">
-        <v>6965.459308420313</v>
+        <v>6965.459308420312</v>
       </c>
       <c r="AL42" t="n">
         <v>14107</v>
@@ -20915,7 +20915,7 @@
         <v>298.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>15525.11640063755</v>
+        <v>15525.11640063756</v>
       </c>
       <c r="AO42" t="n">
         <v>39951</v>
@@ -20957,28 +20957,28 @@
         <v>857.2463768115942</v>
       </c>
       <c r="J43" t="n">
-        <v>-660.8695652173914</v>
+        <v>-172.4637681159421</v>
       </c>
       <c r="K43" t="n">
-        <v>840</v>
+        <v>802</v>
       </c>
       <c r="L43" t="n">
-        <v>32</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M43" t="n">
-        <v>-660.8695652173914</v>
+        <v>1322.463768115942</v>
       </c>
       <c r="N43" t="n">
-        <v>1402</v>
+        <v>1324</v>
       </c>
       <c r="O43" t="n">
-        <v>32</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="P43" t="n">
         <v>-881.8840579710145</v>
       </c>
       <c r="Q43" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="R43" t="n">
         <v>30.66666666666666</v>
@@ -21020,7 +21020,7 @@
         <v>32</v>
       </c>
       <c r="AE43" t="n">
-        <v>-608.695652173913</v>
+        <v>-608.6956521739131</v>
       </c>
       <c r="AF43" t="n">
         <v>508</v>
@@ -21089,28 +21089,28 @@
         <v>16993.68040767956</v>
       </c>
       <c r="J44" t="n">
-        <v>11167.45428593173</v>
+        <v>11849.24484226647</v>
       </c>
       <c r="K44" t="n">
-        <v>4957</v>
+        <v>7744</v>
       </c>
       <c r="L44" t="n">
-        <v>193</v>
+        <v>151.3333333333333</v>
       </c>
       <c r="M44" t="n">
-        <v>17231.02732204791</v>
+        <v>21353.58459180013</v>
       </c>
       <c r="N44" t="n">
-        <v>8586</v>
+        <v>8777</v>
       </c>
       <c r="O44" t="n">
-        <v>193</v>
+        <v>137.3333333333333</v>
       </c>
       <c r="P44" t="n">
         <v>17230.25593354861</v>
       </c>
       <c r="Q44" t="n">
-        <v>2093</v>
+        <v>2069</v>
       </c>
       <c r="R44" t="n">
         <v>190.6666666666667</v>
@@ -21221,28 +21221,28 @@
         <v>836.2318840579711</v>
       </c>
       <c r="J45" t="n">
-        <v>-416.6666666666666</v>
+        <v>-190.5797101449275</v>
       </c>
       <c r="K45" t="n">
-        <v>451</v>
+        <v>596</v>
       </c>
       <c r="L45" t="n">
-        <v>15.66666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M45" t="n">
-        <v>-416.6666666666666</v>
+        <v>489.8550724637681</v>
       </c>
       <c r="N45" t="n">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="O45" t="n">
-        <v>15.66666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P45" t="n">
         <v>-423.1884057971014</v>
       </c>
       <c r="Q45" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="R45" t="n">
         <v>15.66666666666667</v>
@@ -21341,115 +21341,115 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>6639</v>
+        <v>2789</v>
       </c>
       <c r="G46" t="n">
-        <v>384317.5276532738</v>
+        <v>178033.7273574122</v>
       </c>
       <c r="H46" t="n">
-        <v>39991.76636652031</v>
+        <v>32068.98790863357</v>
       </c>
       <c r="I46" t="n">
-        <v>119322.246815323</v>
+        <v>57843.73392864718</v>
       </c>
       <c r="J46" t="n">
-        <v>73885.06244469078</v>
+        <v>27747.34654259654</v>
       </c>
       <c r="K46" t="n">
-        <v>107365</v>
+        <v>60760</v>
       </c>
       <c r="L46" t="n">
-        <v>1557.333333333333</v>
+        <v>641.3333333333334</v>
       </c>
       <c r="M46" t="n">
-        <v>81460.76558842247</v>
+        <v>28669.99900328407</v>
       </c>
       <c r="N46" t="n">
-        <v>100243</v>
+        <v>59483</v>
       </c>
       <c r="O46" t="n">
-        <v>1557.666666666667</v>
+        <v>612.6666666666666</v>
       </c>
       <c r="P46" t="n">
-        <v>19158.77331098266</v>
+        <v>16890.47447967911</v>
       </c>
       <c r="Q46" t="n">
-        <v>64613</v>
+        <v>20473</v>
       </c>
       <c r="R46" t="n">
-        <v>830.3333333333334</v>
+        <v>500.0000000000001</v>
       </c>
       <c r="S46" t="n">
-        <v>32561.42638804191</v>
+        <v>20610.80547659494</v>
       </c>
       <c r="T46" t="n">
-        <v>51968</v>
+        <v>15182</v>
       </c>
       <c r="U46" t="n">
-        <v>1158</v>
+        <v>642.3333333333333</v>
       </c>
       <c r="V46" t="n">
-        <v>55076.77963607686</v>
+        <v>27849.79534310096</v>
       </c>
       <c r="W46" t="n">
-        <v>47936</v>
+        <v>20471</v>
       </c>
       <c r="X46" t="n">
-        <v>1500.333333333333</v>
+        <v>810.0000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>32561.42638804191</v>
+        <v>20610.80547659494</v>
       </c>
       <c r="Z46" t="n">
-        <v>51968</v>
+        <v>15182</v>
       </c>
       <c r="AA46" t="n">
-        <v>1158</v>
+        <v>642.3333333333333</v>
       </c>
       <c r="AB46" t="n">
-        <v>32561.42638804191</v>
+        <v>20610.80547659494</v>
       </c>
       <c r="AC46" t="n">
-        <v>51968</v>
+        <v>15182</v>
       </c>
       <c r="AD46" t="n">
-        <v>1158</v>
+        <v>642.3333333333333</v>
       </c>
       <c r="AE46" t="n">
-        <v>69521.81589069685</v>
+        <v>27174.04859186467</v>
       </c>
       <c r="AF46" t="n">
-        <v>57211</v>
+        <v>22128</v>
       </c>
       <c r="AG46" t="n">
-        <v>1749</v>
+        <v>830.3333333333331</v>
       </c>
       <c r="AH46" t="n">
-        <v>52290.74260572538</v>
+        <v>28101.03899312182</v>
       </c>
       <c r="AI46" t="n">
-        <v>62922</v>
+        <v>20443</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1537</v>
+        <v>809</v>
       </c>
       <c r="AK46" t="n">
-        <v>32561.42638804191</v>
+        <v>20610.80547659494</v>
       </c>
       <c r="AL46" t="n">
-        <v>51968</v>
+        <v>15182</v>
       </c>
       <c r="AM46" t="n">
-        <v>1158</v>
+        <v>642.3333333333333</v>
       </c>
       <c r="AN46" t="n">
-        <v>65522.05209821701</v>
+        <v>26998.28788135194</v>
       </c>
       <c r="AO46" t="n">
-        <v>55224</v>
+        <v>20009</v>
       </c>
       <c r="AP46" t="n">
-        <v>1700</v>
+        <v>816.9999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -21485,22 +21485,22 @@
         <v>30.82706766917294</v>
       </c>
       <c r="J47" t="n">
-        <v>-21.05263157894737</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>18</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="n">
-        <v>2</v>
-      </c>
       <c r="M47" t="n">
-        <v>-21.05263157894737</v>
+        <v>30.82706766917294</v>
       </c>
       <c r="N47" t="n">
+        <v>29</v>
+      </c>
+      <c r="O47" t="n">
         <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2</v>
       </c>
       <c r="P47" t="n">
         <v>-21.05263157894737</v>
@@ -21608,40 +21608,40 @@
         <v>127</v>
       </c>
       <c r="G48" t="n">
-        <v>8105.387608443752</v>
+        <v>8105.387608443753</v>
       </c>
       <c r="H48" t="n">
         <v>1000.606302718175</v>
       </c>
       <c r="I48" t="n">
-        <v>2404.618594472956</v>
+        <v>2404.618594472957</v>
       </c>
       <c r="J48" t="n">
-        <v>1575.80711455664</v>
+        <v>1305.096981098432</v>
       </c>
       <c r="K48" t="n">
-        <v>1043</v>
+        <v>1806</v>
       </c>
       <c r="L48" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M48" t="n">
-        <v>1955.285697503557</v>
+        <v>1601.176138517626</v>
       </c>
       <c r="N48" t="n">
-        <v>434</v>
+        <v>988</v>
       </c>
       <c r="O48" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
-        <v>1035.382814835282</v>
+        <v>1103.559685138586</v>
       </c>
       <c r="Q48" t="n">
-        <v>517</v>
+        <v>439</v>
       </c>
       <c r="R48" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S48" t="n">
         <v>1239.183804035096</v>
@@ -21749,22 +21749,22 @@
         <v>388.7218045112782</v>
       </c>
       <c r="J49" t="n">
-        <v>-219.5488721804511</v>
+        <v>-5.263157894736825</v>
       </c>
       <c r="K49" t="n">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="L49" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>-219.5488721804511</v>
+        <v>342.1052631578948</v>
       </c>
       <c r="N49" t="n">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="O49" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="n">
         <v>-255.6390977443608</v>
@@ -21881,34 +21881,34 @@
         <v>1940.586587576207</v>
       </c>
       <c r="J50" t="n">
-        <v>972.1312797564847</v>
+        <v>1151.454588027161</v>
       </c>
       <c r="K50" t="n">
-        <v>556</v>
+        <v>1022</v>
       </c>
       <c r="L50" t="n">
-        <v>33.5</v>
+        <v>28</v>
       </c>
       <c r="M50" t="n">
-        <v>1520.677992559253</v>
+        <v>1867.946162985318</v>
       </c>
       <c r="N50" t="n">
-        <v>710</v>
+        <v>932</v>
       </c>
       <c r="O50" t="n">
-        <v>33.5</v>
+        <v>26</v>
       </c>
       <c r="P50" t="n">
         <v>1556.592779526671</v>
       </c>
       <c r="Q50" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="R50" t="n">
         <v>33.5</v>
       </c>
       <c r="S50" t="n">
-        <v>835.2894346593125</v>
+        <v>835.2894346593126</v>
       </c>
       <c r="T50" t="n">
         <v>141</v>
@@ -21926,7 +21926,7 @@
         <v>28.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>835.2894346593125</v>
+        <v>835.2894346593126</v>
       </c>
       <c r="Z50" t="n">
         <v>141</v>
@@ -21935,7 +21935,7 @@
         <v>27.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>835.2894346593125</v>
+        <v>835.2894346593126</v>
       </c>
       <c r="AC50" t="n">
         <v>141</v>
@@ -21962,7 +21962,7 @@
         <v>28</v>
       </c>
       <c r="AK50" t="n">
-        <v>835.2894346593125</v>
+        <v>835.2894346593126</v>
       </c>
       <c r="AL50" t="n">
         <v>141</v>
@@ -22013,31 +22013,31 @@
         <v>37467.90304883855</v>
       </c>
       <c r="J51" t="n">
-        <v>15016.44820570454</v>
+        <v>14835.86109131232</v>
       </c>
       <c r="K51" t="n">
-        <v>31216</v>
+        <v>48877</v>
       </c>
       <c r="L51" t="n">
-        <v>513</v>
+        <v>484.5</v>
       </c>
       <c r="M51" t="n">
-        <v>18387.39851648295</v>
+        <v>18002.80744038779</v>
       </c>
       <c r="N51" t="n">
-        <v>25116</v>
+        <v>50220</v>
       </c>
       <c r="O51" t="n">
-        <v>513</v>
+        <v>480.5</v>
       </c>
       <c r="P51" t="n">
-        <v>6095.333934581762</v>
+        <v>6756.473726683611</v>
       </c>
       <c r="Q51" t="n">
-        <v>20022</v>
+        <v>20304</v>
       </c>
       <c r="R51" t="n">
-        <v>277.5</v>
+        <v>263.5</v>
       </c>
       <c r="S51" t="n">
         <v>8279.713206278349</v>
@@ -22085,7 +22085,7 @@
         <v>629</v>
       </c>
       <c r="AH51" t="n">
-        <v>13593.21346592991</v>
+        <v>13593.2134659299</v>
       </c>
       <c r="AI51" t="n">
         <v>45386</v>
@@ -22145,22 +22145,22 @@
         <v>1588.721804511278</v>
       </c>
       <c r="J52" t="n">
-        <v>-741.3533834586465</v>
+        <v>-34.58646616541348</v>
       </c>
       <c r="K52" t="n">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="L52" t="n">
-        <v>32</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M52" t="n">
-        <v>-741.3533834586465</v>
+        <v>1260.902255639098</v>
       </c>
       <c r="N52" t="n">
-        <v>1376</v>
+        <v>1324</v>
       </c>
       <c r="O52" t="n">
-        <v>32</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="P52" t="n">
         <v>-981.2030075187969</v>
@@ -22277,31 +22277,31 @@
         <v>23032.83442169437</v>
       </c>
       <c r="J53" t="n">
-        <v>10950.03668340401</v>
+        <v>12357.50535508321</v>
       </c>
       <c r="K53" t="n">
-        <v>5158</v>
+        <v>8760</v>
       </c>
       <c r="L53" t="n">
-        <v>206.3333333333333</v>
+        <v>163</v>
       </c>
       <c r="M53" t="n">
-        <v>17456.65721396917</v>
+        <v>21435.40408113709</v>
       </c>
       <c r="N53" t="n">
-        <v>8692</v>
+        <v>9425</v>
       </c>
       <c r="O53" t="n">
-        <v>206.3333333333333</v>
+        <v>149</v>
       </c>
       <c r="P53" t="n">
-        <v>17336.05571020978</v>
+        <v>17321.01811622482</v>
       </c>
       <c r="Q53" t="n">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="R53" t="n">
-        <v>204</v>
+        <v>204.3333333333333</v>
       </c>
       <c r="S53" t="n">
         <v>12393.81602795917</v>
@@ -22409,22 +22409,22 @@
         <v>935.3383458646617</v>
       </c>
       <c r="J54" t="n">
-        <v>-430.8270676691729</v>
+        <v>-164.6616541353383</v>
       </c>
       <c r="K54" t="n">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="L54" t="n">
-        <v>15.66666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M54" t="n">
-        <v>-430.8270676691729</v>
+        <v>460.1503759398497</v>
       </c>
       <c r="N54" t="n">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="O54" t="n">
-        <v>15.66666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P54" t="n">
         <v>-467.6691729323308</v>
@@ -22529,115 +22529,115 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>6634</v>
+        <v>2828</v>
       </c>
       <c r="G55" t="n">
-        <v>385034.9807979534</v>
+        <v>180779.3468209704</v>
       </c>
       <c r="H55" t="n">
-        <v>33138.5140508834</v>
+        <v>25841.00774676906</v>
       </c>
       <c r="I55" t="n">
-        <v>128077.3610702048</v>
+        <v>60783.33067112364</v>
       </c>
       <c r="J55" t="n">
-        <v>74525.92553902129</v>
+        <v>29082.24668048585</v>
       </c>
       <c r="K55" t="n">
-        <v>106268</v>
+        <v>62793</v>
       </c>
       <c r="L55" t="n">
-        <v>1581</v>
+        <v>644.3333333333333</v>
       </c>
       <c r="M55" t="n">
-        <v>83485.32416471542</v>
+        <v>30621.50567217904</v>
       </c>
       <c r="N55" t="n">
-        <v>99536</v>
+        <v>60599</v>
       </c>
       <c r="O55" t="n">
-        <v>1581</v>
+        <v>621.3333333333334</v>
       </c>
       <c r="P55" t="n">
-        <v>21834.88061307497</v>
+        <v>18146.20826324078</v>
       </c>
       <c r="Q55" t="n">
-        <v>64515</v>
+        <v>20593</v>
       </c>
       <c r="R55" t="n">
-        <v>877.6666666666667</v>
+        <v>503.3333333333334</v>
       </c>
       <c r="S55" t="n">
-        <v>35686.77625125114</v>
+        <v>22472.40131103157</v>
       </c>
       <c r="T55" t="n">
-        <v>50035</v>
+        <v>14828</v>
       </c>
       <c r="U55" t="n">
-        <v>1201.333333333333</v>
+        <v>677</v>
       </c>
       <c r="V55" t="n">
-        <v>52712.2623558946</v>
+        <v>27803.573983332</v>
       </c>
       <c r="W55" t="n">
-        <v>48219</v>
+        <v>20611</v>
       </c>
       <c r="X55" t="n">
-        <v>1452</v>
+        <v>783.0000000000001</v>
       </c>
       <c r="Y55" t="n">
-        <v>35686.77625125114</v>
+        <v>22472.40131103157</v>
       </c>
       <c r="Z55" t="n">
-        <v>50035</v>
+        <v>14828</v>
       </c>
       <c r="AA55" t="n">
-        <v>1201.333333333333</v>
+        <v>677</v>
       </c>
       <c r="AB55" t="n">
-        <v>35686.77625125114</v>
+        <v>22472.40131103157</v>
       </c>
       <c r="AC55" t="n">
-        <v>50035</v>
+        <v>14828</v>
       </c>
       <c r="AD55" t="n">
-        <v>1201.333333333333</v>
+        <v>677</v>
       </c>
       <c r="AE55" t="n">
-        <v>71903.46044591122</v>
+        <v>29580.74504028679</v>
       </c>
       <c r="AF55" t="n">
-        <v>54709</v>
+        <v>22268</v>
       </c>
       <c r="AG55" t="n">
-        <v>1700.666666666667</v>
+        <v>855.3333333333333</v>
       </c>
       <c r="AH55" t="n">
-        <v>48886.46145749868</v>
+        <v>28024.45660343558</v>
       </c>
       <c r="AI55" t="n">
-        <v>62357</v>
+        <v>20593</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1483</v>
+        <v>781.9999999999999</v>
       </c>
       <c r="AK55" t="n">
-        <v>35686.77625125114</v>
+        <v>22472.40131103157</v>
       </c>
       <c r="AL55" t="n">
-        <v>50035</v>
+        <v>14828</v>
       </c>
       <c r="AM55" t="n">
-        <v>1201.333333333333</v>
+        <v>677</v>
       </c>
       <c r="AN55" t="n">
-        <v>68320.13683427118</v>
+        <v>28728.23919075383</v>
       </c>
       <c r="AO55" t="n">
-        <v>53932</v>
+        <v>19676</v>
       </c>
       <c r="AP55" t="n">
-        <v>1774</v>
+        <v>834.3333333333335</v>
       </c>
     </row>
     <row r="56">
@@ -22673,22 +22673,22 @@
         <v>33.07086614173228</v>
       </c>
       <c r="J56" t="n">
-        <v>-12.59842519685038</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>-12.59842519685038</v>
+        <v>31.49606299212598</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>-20.47244094488189</v>
@@ -22796,7 +22796,7 @@
         <v>133</v>
       </c>
       <c r="G57" t="n">
-        <v>8535.475101812975</v>
+        <v>8535.475101812974</v>
       </c>
       <c r="H57" t="n">
         <v>1184.23995499388</v>
@@ -22805,34 +22805,34 @@
         <v>2586.989239047652</v>
       </c>
       <c r="J57" t="n">
-        <v>1577.622762497982</v>
+        <v>1228.911202289604</v>
       </c>
       <c r="K57" t="n">
-        <v>1105</v>
+        <v>1919</v>
       </c>
       <c r="L57" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="M57" t="n">
-        <v>1926.105656874315</v>
+        <v>1515.615014790392</v>
       </c>
       <c r="N57" t="n">
-        <v>451</v>
+        <v>1134</v>
       </c>
       <c r="O57" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
-        <v>1140.048321879706</v>
+        <v>1157.485873772949</v>
       </c>
       <c r="Q57" t="n">
-        <v>542</v>
+        <v>454</v>
       </c>
       <c r="R57" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S57" t="n">
-        <v>1326.865546738675</v>
+        <v>1326.865546738674</v>
       </c>
       <c r="T57" t="n">
         <v>375</v>
@@ -22841,7 +22841,7 @@
         <v>60</v>
       </c>
       <c r="V57" t="n">
-        <v>1528.23058178701</v>
+        <v>1528.230581787009</v>
       </c>
       <c r="W57" t="n">
         <v>637</v>
@@ -22850,7 +22850,7 @@
         <v>75</v>
       </c>
       <c r="Y57" t="n">
-        <v>1326.865546738675</v>
+        <v>1326.865546738674</v>
       </c>
       <c r="Z57" t="n">
         <v>375</v>
@@ -22859,7 +22859,7 @@
         <v>60</v>
       </c>
       <c r="AB57" t="n">
-        <v>1326.865546738675</v>
+        <v>1326.865546738674</v>
       </c>
       <c r="AC57" t="n">
         <v>375</v>
@@ -22886,7 +22886,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="n">
-        <v>1326.865546738675</v>
+        <v>1326.865546738674</v>
       </c>
       <c r="AL57" t="n">
         <v>375</v>
@@ -22934,34 +22934,34 @@
         <v>300.0000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>376.3779527559055</v>
+        <v>376.3779527559054</v>
       </c>
       <c r="J58" t="n">
-        <v>-144.8818897637795</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="L58" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>-144.8818897637795</v>
+        <v>394.4881889763779</v>
       </c>
       <c r="N58" t="n">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="O58" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>-249.6062992125984</v>
+        <v>-264.5669291338583</v>
       </c>
       <c r="Q58" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R58" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S58" t="n">
         <v>-213.3858267716535</v>
@@ -23069,28 +23069,28 @@
         <v>1739.871005332966</v>
       </c>
       <c r="J59" t="n">
-        <v>1011.374837138163</v>
+        <v>1144.052002492494</v>
       </c>
       <c r="K59" t="n">
-        <v>489</v>
+        <v>862</v>
       </c>
       <c r="L59" t="n">
-        <v>25</v>
+        <v>21.5</v>
       </c>
       <c r="M59" t="n">
-        <v>1595.650273931586</v>
+        <v>1921.072096203802</v>
       </c>
       <c r="N59" t="n">
-        <v>695</v>
+        <v>825</v>
       </c>
       <c r="O59" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="P59" t="n">
         <v>1570.200330174556</v>
       </c>
       <c r="Q59" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R59" t="n">
         <v>28</v>
@@ -23192,43 +23192,43 @@
         <v>1914</v>
       </c>
       <c r="G60" t="n">
-        <v>121401.7354393062</v>
+        <v>121401.7354393061</v>
       </c>
       <c r="H60" t="n">
-        <v>7765.121181125793</v>
+        <v>7765.121181125789</v>
       </c>
       <c r="I60" t="n">
         <v>39301.57861989184</v>
       </c>
       <c r="J60" t="n">
-        <v>15130.05683479304</v>
+        <v>14141.10285790252</v>
       </c>
       <c r="K60" t="n">
-        <v>32375</v>
+        <v>50173</v>
       </c>
       <c r="L60" t="n">
-        <v>531.5</v>
+        <v>472.5</v>
       </c>
       <c r="M60" t="n">
-        <v>18470.61173214252</v>
+        <v>17090.35868252446</v>
       </c>
       <c r="N60" t="n">
-        <v>26279</v>
+        <v>52387</v>
       </c>
       <c r="O60" t="n">
-        <v>531.5</v>
+        <v>469.5</v>
       </c>
       <c r="P60" t="n">
-        <v>7371.355581266351</v>
+        <v>7670.237367101697</v>
       </c>
       <c r="Q60" t="n">
-        <v>20680</v>
+        <v>21043</v>
       </c>
       <c r="R60" t="n">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="S60" t="n">
-        <v>8328.852893139221</v>
+        <v>8328.852893139219</v>
       </c>
       <c r="T60" t="n">
         <v>14383</v>
@@ -23246,7 +23246,7 @@
         <v>581.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>8328.852893139221</v>
+        <v>8328.852893139219</v>
       </c>
       <c r="Z60" t="n">
         <v>14383</v>
@@ -23255,7 +23255,7 @@
         <v>351</v>
       </c>
       <c r="AB60" t="n">
-        <v>8328.852893139221</v>
+        <v>8328.852893139219</v>
       </c>
       <c r="AC60" t="n">
         <v>14383</v>
@@ -23282,7 +23282,7 @@
         <v>573.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>8328.852893139221</v>
+        <v>8328.852893139219</v>
       </c>
       <c r="AL60" t="n">
         <v>14381</v>
@@ -23333,31 +23333,31 @@
         <v>1477.165354330708</v>
       </c>
       <c r="J61" t="n">
-        <v>-530.7086614173228</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>962</v>
+        <v>1114</v>
       </c>
       <c r="L61" t="n">
-        <v>23.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>-530.7086614173228</v>
+        <v>1625.984251968503</v>
       </c>
       <c r="N61" t="n">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="O61" t="n">
-        <v>23.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>-958.267716535433</v>
+        <v>-1085.03937007874</v>
       </c>
       <c r="Q61" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="R61" t="n">
-        <v>30.66666666666666</v>
+        <v>32</v>
       </c>
       <c r="S61" t="n">
         <v>-718.1102362204724</v>
@@ -23465,31 +23465,31 @@
         <v>18467.70783598093</v>
       </c>
       <c r="J62" t="n">
-        <v>11575.96523456151</v>
+        <v>12704.31169125442</v>
       </c>
       <c r="K62" t="n">
-        <v>5010</v>
+        <v>8375</v>
       </c>
       <c r="L62" t="n">
-        <v>172.6666666666667</v>
+        <v>141.3333333333333</v>
       </c>
       <c r="M62" t="n">
-        <v>18259.72679674033</v>
+        <v>22211.30159988994</v>
       </c>
       <c r="N62" t="n">
-        <v>8397</v>
+        <v>8742</v>
       </c>
       <c r="O62" t="n">
-        <v>172.6666666666667</v>
+        <v>125.3333333333333</v>
       </c>
       <c r="P62" t="n">
-        <v>17806.68967638038</v>
+        <v>17701.17786535676</v>
       </c>
       <c r="Q62" t="n">
-        <v>2058</v>
+        <v>2040</v>
       </c>
       <c r="R62" t="n">
-        <v>189.3333333333333</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="S62" t="n">
         <v>13864.63247849414</v>
@@ -23597,28 +23597,28 @@
         <v>896.0629921259842</v>
       </c>
       <c r="J63" t="n">
-        <v>-329.1338582677165</v>
+        <v>-138.5826771653543</v>
       </c>
       <c r="K63" t="n">
-        <v>474</v>
+        <v>612</v>
       </c>
       <c r="L63" t="n">
-        <v>11</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M63" t="n">
-        <v>-329.1338582677165</v>
+        <v>459.0551181102362</v>
       </c>
       <c r="N63" t="n">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="O63" t="n">
-        <v>11</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P63" t="n">
         <v>-437.007874015748</v>
       </c>
       <c r="Q63" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="R63" t="n">
         <v>15.33333333333333</v>
@@ -23687,7 +23687,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="AN63" t="n">
-        <v>-124.4094488188977</v>
+        <v>-124.4094488188976</v>
       </c>
       <c r="AO63" t="n">
         <v>78</v>
@@ -23717,115 +23717,115 @@
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>6666</v>
+        <v>2823</v>
       </c>
       <c r="G64" t="n">
-        <v>387229.8728712098</v>
+        <v>180570.4208615918</v>
       </c>
       <c r="H64" t="n">
-        <v>52080.32754533034</v>
+        <v>37821.37950295473</v>
       </c>
       <c r="I64" t="n">
-        <v>134274.3451354282</v>
+        <v>65128.59049515418</v>
       </c>
       <c r="J64" t="n">
-        <v>74468.78826186233</v>
+        <v>27701.22798747718</v>
       </c>
       <c r="K64" t="n">
-        <v>110866</v>
+        <v>63313</v>
       </c>
       <c r="L64" t="n">
-        <v>1584.666666666667</v>
+        <v>610.9999999999999</v>
       </c>
       <c r="M64" t="n">
-        <v>83990.45948369605</v>
+        <v>29117.18460114923</v>
       </c>
       <c r="N64" t="n">
-        <v>98743</v>
+        <v>60264</v>
       </c>
       <c r="O64" t="n">
-        <v>1584.666666666667</v>
+        <v>591.9999999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>22879.04123477526</v>
+        <v>17849.6442184837</v>
       </c>
       <c r="Q64" t="n">
-        <v>65456</v>
+        <v>20662</v>
       </c>
       <c r="R64" t="n">
-        <v>890.6666666666667</v>
+        <v>514</v>
       </c>
       <c r="S64" t="n">
-        <v>35172.78944059178</v>
+        <v>21739.71948143718</v>
       </c>
       <c r="T64" t="n">
-        <v>49111</v>
+        <v>14365</v>
       </c>
       <c r="U64" t="n">
-        <v>1217.666666666667</v>
+        <v>697.3333333333334</v>
       </c>
       <c r="V64" t="n">
-        <v>52187.63745325105</v>
+        <v>28011.62485613943</v>
       </c>
       <c r="W64" t="n">
-        <v>48484</v>
+        <v>20462</v>
       </c>
       <c r="X64" t="n">
-        <v>1448</v>
+        <v>782.3333333333335</v>
       </c>
       <c r="Y64" t="n">
-        <v>35172.78944059178</v>
+        <v>21739.71948143718</v>
       </c>
       <c r="Z64" t="n">
-        <v>49111</v>
+        <v>14365</v>
       </c>
       <c r="AA64" t="n">
-        <v>1217.666666666667</v>
+        <v>697.3333333333334</v>
       </c>
       <c r="AB64" t="n">
-        <v>35172.78944059178</v>
+        <v>21739.71948143718</v>
       </c>
       <c r="AC64" t="n">
-        <v>49111</v>
+        <v>14365</v>
       </c>
       <c r="AD64" t="n">
-        <v>1217.666666666667</v>
+        <v>697.3333333333334</v>
       </c>
       <c r="AE64" t="n">
-        <v>72577.08381446514</v>
+        <v>28884.03998915273</v>
       </c>
       <c r="AF64" t="n">
-        <v>56970</v>
+        <v>22164</v>
       </c>
       <c r="AG64" t="n">
-        <v>1682.666666666667</v>
+        <v>843.6666666666667</v>
       </c>
       <c r="AH64" t="n">
-        <v>49596.18487127484</v>
+        <v>28302.07783746788</v>
       </c>
       <c r="AI64" t="n">
-        <v>64063</v>
+        <v>20427</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1485.666666666667</v>
+        <v>782.3333333333334</v>
       </c>
       <c r="AK64" t="n">
-        <v>35172.78944059178</v>
+        <v>21739.71948143718</v>
       </c>
       <c r="AL64" t="n">
-        <v>49111</v>
+        <v>14365</v>
       </c>
       <c r="AM64" t="n">
-        <v>1217.666666666667</v>
+        <v>697.3333333333334</v>
       </c>
       <c r="AN64" t="n">
-        <v>69310.77876366799</v>
+        <v>28496.52246176371</v>
       </c>
       <c r="AO64" t="n">
-        <v>54643</v>
+        <v>20215</v>
       </c>
       <c r="AP64" t="n">
-        <v>1785</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65">
@@ -23861,22 +23861,22 @@
         <v>24.59016393442624</v>
       </c>
       <c r="J65" t="n">
-        <v>-13.11475409836066</v>
+        <v>-32.78688524590163</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>-13.11475409836066</v>
+        <v>31.9672131147541</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>-19.67213114754098</v>
@@ -23993,31 +23993,31 @@
         <v>2564.311062925254</v>
       </c>
       <c r="J66" t="n">
-        <v>1661.867000961697</v>
+        <v>1305.752813367583</v>
       </c>
       <c r="K66" t="n">
-        <v>1130</v>
+        <v>1895</v>
       </c>
       <c r="L66" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M66" t="n">
-        <v>2007.870350275404</v>
+        <v>1581.203919183629</v>
       </c>
       <c r="N66" t="n">
-        <v>434</v>
+        <v>1206</v>
       </c>
       <c r="O66" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="P66" t="n">
-        <v>1181.898105081965</v>
+        <v>1174.99828483498</v>
       </c>
       <c r="Q66" t="n">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="R66" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S66" t="n">
         <v>1353.790255582253</v>
@@ -24125,31 +24125,31 @@
         <v>284.4262295081967</v>
       </c>
       <c r="J67" t="n">
-        <v>-150.8196721311475</v>
+        <v>-393.4426229508196</v>
       </c>
       <c r="K67" t="n">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="L67" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>-150.8196721311475</v>
+        <v>400.8196721311475</v>
       </c>
       <c r="N67" t="n">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="O67" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>-241.8032786885246</v>
+        <v>-255.7377049180328</v>
       </c>
       <c r="Q67" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R67" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S67" t="n">
         <v>-207.3770491803279</v>
@@ -24257,28 +24257,28 @@
         <v>1964.192357031011</v>
       </c>
       <c r="J68" t="n">
-        <v>998.7797362258104</v>
+        <v>965.7499851632725</v>
       </c>
       <c r="K68" t="n">
-        <v>491</v>
+        <v>862</v>
       </c>
       <c r="L68" t="n">
-        <v>26</v>
+        <v>20.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1547.62406928067</v>
+        <v>1882.141373470105</v>
       </c>
       <c r="N68" t="n">
-        <v>696</v>
+        <v>824</v>
       </c>
       <c r="O68" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="P68" t="n">
         <v>1530.441312753651</v>
       </c>
       <c r="Q68" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R68" t="n">
         <v>28</v>
@@ -24386,37 +24386,37 @@
         <v>12692.82922247847</v>
       </c>
       <c r="I69" t="n">
-        <v>37628.10677512817</v>
+        <v>37628.10677512816</v>
       </c>
       <c r="J69" t="n">
-        <v>16489.85878975464</v>
+        <v>14743.3691904461</v>
       </c>
       <c r="K69" t="n">
-        <v>31463</v>
+        <v>48804</v>
       </c>
       <c r="L69" t="n">
-        <v>551.5</v>
+        <v>474</v>
       </c>
       <c r="M69" t="n">
-        <v>19780.36700437249</v>
+        <v>17941.05776754424</v>
       </c>
       <c r="N69" t="n">
-        <v>23125</v>
+        <v>51303</v>
       </c>
       <c r="O69" t="n">
-        <v>551.5</v>
+        <v>468.5</v>
       </c>
       <c r="P69" t="n">
-        <v>7861.780736963216</v>
+        <v>7971.460589976463</v>
       </c>
       <c r="Q69" t="n">
-        <v>20533</v>
+        <v>20748</v>
       </c>
       <c r="R69" t="n">
-        <v>287.5</v>
+        <v>266.5</v>
       </c>
       <c r="S69" t="n">
-        <v>9101.67460683729</v>
+        <v>9101.674606837289</v>
       </c>
       <c r="T69" t="n">
         <v>13335</v>
@@ -24434,7 +24434,7 @@
         <v>548.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>9101.67460683729</v>
+        <v>9101.674606837289</v>
       </c>
       <c r="Z69" t="n">
         <v>13335</v>
@@ -24443,7 +24443,7 @@
         <v>367</v>
       </c>
       <c r="AB69" t="n">
-        <v>9101.67460683729</v>
+        <v>9101.674606837289</v>
       </c>
       <c r="AC69" t="n">
         <v>13335</v>
@@ -24452,7 +24452,7 @@
         <v>367</v>
       </c>
       <c r="AE69" t="n">
-        <v>18302.54475789828</v>
+        <v>18302.54475789827</v>
       </c>
       <c r="AF69" t="n">
         <v>52281</v>
@@ -24470,7 +24470,7 @@
         <v>541.5</v>
       </c>
       <c r="AK69" t="n">
-        <v>9101.67460683729</v>
+        <v>9101.674606837289</v>
       </c>
       <c r="AL69" t="n">
         <v>13335</v>
@@ -24521,31 +24521,31 @@
         <v>1094.262295081967</v>
       </c>
       <c r="J70" t="n">
-        <v>-552.4590163934425</v>
+        <v>-1573.770491803279</v>
       </c>
       <c r="K70" t="n">
-        <v>886</v>
+        <v>1072</v>
       </c>
       <c r="L70" t="n">
-        <v>23.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>-552.4590163934425</v>
+        <v>1653.27868852459</v>
       </c>
       <c r="N70" t="n">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="O70" t="n">
-        <v>23.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>-931.9672131147543</v>
+        <v>-1050.819672131148</v>
       </c>
       <c r="Q70" t="n">
         <v>544</v>
       </c>
       <c r="R70" t="n">
-        <v>30.66666666666666</v>
+        <v>32</v>
       </c>
       <c r="S70" t="n">
         <v>-704.9180327868853</v>
@@ -24653,31 +24653,31 @@
         <v>22852.92717221104</v>
       </c>
       <c r="J71" t="n">
-        <v>11493.12922561413</v>
+        <v>10607.54938347691</v>
       </c>
       <c r="K71" t="n">
-        <v>5015</v>
+        <v>8349</v>
       </c>
       <c r="L71" t="n">
-        <v>179.6666666666667</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="M71" t="n">
-        <v>18048.62908637714</v>
+        <v>22069.06017320167</v>
       </c>
       <c r="N71" t="n">
-        <v>8479</v>
+        <v>8730</v>
       </c>
       <c r="O71" t="n">
-        <v>179.6666666666667</v>
+        <v>125.3333333333333</v>
       </c>
       <c r="P71" t="n">
-        <v>17666.17614162911</v>
+        <v>17567.81548589141</v>
       </c>
       <c r="Q71" t="n">
-        <v>2074</v>
+        <v>2040</v>
       </c>
       <c r="R71" t="n">
-        <v>189.3333333333333</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="S71" t="n">
         <v>13945.95368201925</v>
@@ -24785,28 +24785,28 @@
         <v>826.2295081967213</v>
       </c>
       <c r="J72" t="n">
-        <v>-395.9016393442623</v>
+        <v>-427.8688524590164</v>
       </c>
       <c r="K72" t="n">
-        <v>470</v>
+        <v>634</v>
       </c>
       <c r="L72" t="n">
-        <v>14.33333333333333</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>-395.9016393442623</v>
+        <v>531.967213114754</v>
       </c>
       <c r="N72" t="n">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="O72" t="n">
-        <v>14.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
         <v>-415.5737704918032</v>
       </c>
       <c r="Q72" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="R72" t="n">
         <v>15.66666666666667</v>
@@ -24905,115 +24905,115 @@
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>6558</v>
+        <v>2804</v>
       </c>
       <c r="G73" t="n">
-        <v>380606.6258283756</v>
+        <v>179911.0355420102</v>
       </c>
       <c r="H73" t="n">
-        <v>75188.34113941934</v>
+        <v>42586.98733934115</v>
       </c>
       <c r="I73" t="n">
-        <v>152576.1809768262</v>
+        <v>63715.36974645509</v>
       </c>
       <c r="J73" t="n">
-        <v>80152.32468328775</v>
+        <v>32931.70654356448</v>
       </c>
       <c r="K73" t="n">
-        <v>114761</v>
+        <v>64537</v>
       </c>
       <c r="L73" t="n">
-        <v>1607.333333333333</v>
+        <v>596.9999999999999</v>
       </c>
       <c r="M73" t="n">
-        <v>90172.84481457649</v>
+        <v>35429.8960328811</v>
       </c>
       <c r="N73" t="n">
-        <v>97463</v>
+        <v>61222</v>
       </c>
       <c r="O73" t="n">
-        <v>1607.333333333333</v>
+        <v>574.9999999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>28137.89009010103</v>
+        <v>24364.57203011964</v>
       </c>
       <c r="Q73" t="n">
-        <v>64329</v>
+        <v>20824</v>
       </c>
       <c r="R73" t="n">
-        <v>869.6666666666666</v>
+        <v>500.6666666666667</v>
       </c>
       <c r="S73" t="n">
-        <v>37960.08626647364</v>
+        <v>24922.05456786629</v>
       </c>
       <c r="T73" t="n">
-        <v>47898</v>
+        <v>14609</v>
       </c>
       <c r="U73" t="n">
-        <v>1195.666666666667</v>
+        <v>677.6666666666666</v>
       </c>
       <c r="V73" t="n">
-        <v>57129.73519475357</v>
+        <v>33993.11954765196</v>
       </c>
       <c r="W73" t="n">
-        <v>48963</v>
+        <v>21161</v>
       </c>
       <c r="X73" t="n">
-        <v>1445.666666666667</v>
+        <v>773.6666666666667</v>
       </c>
       <c r="Y73" t="n">
-        <v>37960.08626647364</v>
+        <v>24922.05456786629</v>
       </c>
       <c r="Z73" t="n">
-        <v>47898</v>
+        <v>14609</v>
       </c>
       <c r="AA73" t="n">
-        <v>1195.666666666667</v>
+        <v>677.6666666666666</v>
       </c>
       <c r="AB73" t="n">
-        <v>37960.08626647364</v>
+        <v>24922.05456786629</v>
       </c>
       <c r="AC73" t="n">
-        <v>47898</v>
+        <v>14609</v>
       </c>
       <c r="AD73" t="n">
-        <v>1195.666666666667</v>
+        <v>677.6666666666666</v>
       </c>
       <c r="AE73" t="n">
-        <v>81002.1856044283</v>
+        <v>34741.94899744963</v>
       </c>
       <c r="AF73" t="n">
-        <v>60205</v>
+        <v>23045</v>
       </c>
       <c r="AG73" t="n">
-        <v>1767.666666666667</v>
+        <v>840.3333333333331</v>
       </c>
       <c r="AH73" t="n">
-        <v>54405.37123670058</v>
+        <v>34320.63450053777</v>
       </c>
       <c r="AI73" t="n">
-        <v>61623</v>
+        <v>21125</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1490</v>
+        <v>774.6666666666667</v>
       </c>
       <c r="AK73" t="n">
-        <v>37960.08626647364</v>
+        <v>24922.05456786629</v>
       </c>
       <c r="AL73" t="n">
-        <v>47898</v>
+        <v>14609</v>
       </c>
       <c r="AM73" t="n">
-        <v>1195.666666666667</v>
+        <v>677.6666666666666</v>
       </c>
       <c r="AN73" t="n">
-        <v>76890.99018806941</v>
+        <v>34187.26639549923</v>
       </c>
       <c r="AO73" t="n">
-        <v>57926</v>
+        <v>20756</v>
       </c>
       <c r="AP73" t="n">
-        <v>1759</v>
+        <v>813.6666666666665</v>
       </c>
     </row>
     <row r="74">
@@ -25049,22 +25049,22 @@
         <v>36.75213675213675</v>
       </c>
       <c r="J74" t="n">
-        <v>-1.709401709401714</v>
+        <v>-32.47863247863249</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>-1.709401709401714</v>
+        <v>35.04273504273503</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
         <v>-13.67521367521368</v>
@@ -25181,34 +25181,34 @@
         <v>2680.611429358305</v>
       </c>
       <c r="J75" t="n">
-        <v>1718.928061901435</v>
+        <v>1427.1700924771</v>
       </c>
       <c r="K75" t="n">
-        <v>1141</v>
+        <v>1987</v>
       </c>
       <c r="L75" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M75" t="n">
-        <v>2068.839386666292</v>
+        <v>1669.49833488511</v>
       </c>
       <c r="N75" t="n">
-        <v>467</v>
+        <v>1210</v>
       </c>
       <c r="O75" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="P75" t="n">
-        <v>1226.43091856215</v>
+        <v>1274.315276543792</v>
       </c>
       <c r="Q75" t="n">
-        <v>541</v>
+        <v>449</v>
       </c>
       <c r="R75" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S75" t="n">
-        <v>1443.158679860417</v>
+        <v>1443.158679860418</v>
       </c>
       <c r="T75" t="n">
         <v>343</v>
@@ -25217,7 +25217,7 @@
         <v>63</v>
       </c>
       <c r="V75" t="n">
-        <v>1443.122749923497</v>
+        <v>1443.122749923498</v>
       </c>
       <c r="W75" t="n">
         <v>682</v>
@@ -25226,7 +25226,7 @@
         <v>70</v>
       </c>
       <c r="Y75" t="n">
-        <v>1443.158679860417</v>
+        <v>1443.158679860418</v>
       </c>
       <c r="Z75" t="n">
         <v>343</v>
@@ -25235,7 +25235,7 @@
         <v>63</v>
       </c>
       <c r="AB75" t="n">
-        <v>1443.158679860417</v>
+        <v>1443.158679860418</v>
       </c>
       <c r="AC75" t="n">
         <v>343</v>
@@ -25262,7 +25262,7 @@
         <v>69</v>
       </c>
       <c r="AK75" t="n">
-        <v>1443.158679860417</v>
+        <v>1443.158679860418</v>
       </c>
       <c r="AL75" t="n">
         <v>343</v>
@@ -25271,7 +25271,7 @@
         <v>63</v>
       </c>
       <c r="AN75" t="n">
-        <v>1889.593940085362</v>
+        <v>1889.593940085361</v>
       </c>
       <c r="AO75" t="n">
         <v>582</v>
@@ -25313,28 +25313,28 @@
         <v>441.8803418803419</v>
       </c>
       <c r="J76" t="n">
-        <v>-33.33333333333334</v>
+        <v>-389.7435897435898</v>
       </c>
       <c r="K76" t="n">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="L76" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>-33.33333333333334</v>
+        <v>435.0427350427349</v>
       </c>
       <c r="N76" t="n">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="O76" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>-176.0683760683761</v>
       </c>
       <c r="Q76" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R76" t="n">
         <v>11.5</v>
@@ -25445,28 +25445,28 @@
         <v>2101.508295625943</v>
       </c>
       <c r="J77" t="n">
-        <v>1193.142282554047</v>
+        <v>1070.920060331825</v>
       </c>
       <c r="K77" t="n">
-        <v>497</v>
+        <v>912</v>
       </c>
       <c r="L77" t="n">
-        <v>26.5</v>
+        <v>21.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1703.504273504273</v>
+        <v>1993.247863247863</v>
       </c>
       <c r="N77" t="n">
-        <v>692</v>
+        <v>860</v>
       </c>
       <c r="O77" t="n">
-        <v>26.5</v>
+        <v>20.5</v>
       </c>
       <c r="P77" t="n">
         <v>1660.34188034188</v>
       </c>
       <c r="Q77" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R77" t="n">
         <v>29</v>
@@ -25568,7 +25568,7 @@
         <v>1917</v>
       </c>
       <c r="G78" t="n">
-        <v>122311.5692067738</v>
+        <v>122311.5692067739</v>
       </c>
       <c r="H78" t="n">
         <v>22972.71091410155</v>
@@ -25577,34 +25577,34 @@
         <v>40376.02762720954</v>
       </c>
       <c r="J78" t="n">
-        <v>17170.62467773643</v>
+        <v>15492.16193312428</v>
       </c>
       <c r="K78" t="n">
-        <v>31576</v>
+        <v>50287</v>
       </c>
       <c r="L78" t="n">
-        <v>573.5</v>
+        <v>485</v>
       </c>
       <c r="M78" t="n">
-        <v>20510.73208338547</v>
+        <v>18506.66583797347</v>
       </c>
       <c r="N78" t="n">
-        <v>23927</v>
+        <v>52267</v>
       </c>
       <c r="O78" t="n">
-        <v>573.5</v>
+        <v>480</v>
       </c>
       <c r="P78" t="n">
-        <v>8429.685106539035</v>
+        <v>9090.582590644251</v>
       </c>
       <c r="Q78" t="n">
-        <v>20732</v>
+        <v>21023</v>
       </c>
       <c r="R78" t="n">
-        <v>310</v>
+        <v>293.5</v>
       </c>
       <c r="S78" t="n">
-        <v>9365.669547332493</v>
+        <v>9365.669547332491</v>
       </c>
       <c r="T78" t="n">
         <v>13153</v>
@@ -25622,7 +25622,7 @@
         <v>565.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>9365.669547332493</v>
+        <v>9365.669547332491</v>
       </c>
       <c r="Z78" t="n">
         <v>13153</v>
@@ -25631,7 +25631,7 @@
         <v>382.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>9365.669547332493</v>
+        <v>9365.669547332491</v>
       </c>
       <c r="AC78" t="n">
         <v>13153</v>
@@ -25649,7 +25649,7 @@
         <v>644</v>
       </c>
       <c r="AH78" t="n">
-        <v>13537.46106437241</v>
+        <v>13537.46106437242</v>
       </c>
       <c r="AI78" t="n">
         <v>46972</v>
@@ -25658,7 +25658,7 @@
         <v>556</v>
       </c>
       <c r="AK78" t="n">
-        <v>9365.669547332493</v>
+        <v>9365.669547332491</v>
       </c>
       <c r="AL78" t="n">
         <v>13153</v>
@@ -25709,22 +25709,22 @@
         <v>1701.709401709402</v>
       </c>
       <c r="J79" t="n">
-        <v>-158.1196581196581</v>
+        <v>-1558.974358974359</v>
       </c>
       <c r="K79" t="n">
-        <v>860</v>
+        <v>1185</v>
       </c>
       <c r="L79" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>-158.1196581196581</v>
+        <v>1780.34188034188</v>
       </c>
       <c r="N79" t="n">
-        <v>1280</v>
+        <v>1344</v>
       </c>
       <c r="O79" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>-689.7435897435897</v>
@@ -25841,31 +25841,31 @@
         <v>24356.08848667672</v>
       </c>
       <c r="J80" t="n">
-        <v>13088.02413273002</v>
+        <v>11591.44293614882</v>
       </c>
       <c r="K80" t="n">
-        <v>4999</v>
+        <v>8612</v>
       </c>
       <c r="L80" t="n">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="M80" t="n">
-        <v>19680.51282051282</v>
+        <v>23201.88034188034</v>
       </c>
       <c r="N80" t="n">
-        <v>8348</v>
+        <v>8790</v>
       </c>
       <c r="O80" t="n">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="P80" t="n">
-        <v>19112.99145299145</v>
+        <v>19100.17094017094</v>
       </c>
       <c r="Q80" t="n">
-        <v>2085</v>
+        <v>2047</v>
       </c>
       <c r="R80" t="n">
-        <v>194.3333333333333</v>
+        <v>194.6666666666667</v>
       </c>
       <c r="S80" t="n">
         <v>14890.04524886878</v>
@@ -25973,28 +25973,28 @@
         <v>1003.418803418803</v>
       </c>
       <c r="J81" t="n">
-        <v>-232.4786324786325</v>
+        <v>-427.3504273504274</v>
       </c>
       <c r="K81" t="n">
-        <v>484</v>
+        <v>637</v>
       </c>
       <c r="L81" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>-232.4786324786325</v>
+        <v>582.0512820512819</v>
       </c>
       <c r="N81" t="n">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="O81" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
         <v>-324.7863247863248</v>
       </c>
       <c r="Q81" t="n">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="R81" t="n">
         <v>15.66666666666667</v>
@@ -26093,115 +26093,115 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>6596</v>
+        <v>2886</v>
       </c>
       <c r="G82" t="n">
-        <v>383211.5867195405</v>
+        <v>185141.0478607757</v>
       </c>
       <c r="H82" t="n">
-        <v>118565.4445779367</v>
+        <v>44069.93169822765</v>
       </c>
       <c r="I82" t="n">
-        <v>146627.7691262884</v>
+        <v>68145.28689603558</v>
       </c>
       <c r="J82" t="n">
-        <v>80524.82071248851</v>
+        <v>34127.370120619</v>
       </c>
       <c r="K82" t="n">
-        <v>117133</v>
+        <v>65852</v>
       </c>
       <c r="L82" t="n">
-        <v>1614</v>
+        <v>610.6666666666666</v>
       </c>
       <c r="M82" t="n">
-        <v>90566.74505769204</v>
+        <v>36249.60570694278</v>
       </c>
       <c r="N82" t="n">
-        <v>98606</v>
+        <v>62913</v>
       </c>
       <c r="O82" t="n">
-        <v>1614</v>
+        <v>588.3333333333333</v>
       </c>
       <c r="P82" t="n">
-        <v>30828.87052438861</v>
+        <v>26337.01655956723</v>
       </c>
       <c r="Q82" t="n">
-        <v>64220</v>
+        <v>21174</v>
       </c>
       <c r="R82" t="n">
-        <v>920.6666666666665</v>
+        <v>539.6666666666666</v>
       </c>
       <c r="S82" t="n">
-        <v>38951.7251264253</v>
+        <v>25867.93060810574</v>
       </c>
       <c r="T82" t="n">
-        <v>46812</v>
+        <v>14296</v>
       </c>
       <c r="U82" t="n">
-        <v>1222.666666666667</v>
+        <v>703.9999999999999</v>
       </c>
       <c r="V82" t="n">
-        <v>57601.91858773147</v>
+        <v>34309.06019407458</v>
       </c>
       <c r="W82" t="n">
-        <v>52372</v>
+        <v>22736</v>
       </c>
       <c r="X82" t="n">
-        <v>1444.333333333333</v>
+        <v>794.3333333333334</v>
       </c>
       <c r="Y82" t="n">
-        <v>38951.7251264253</v>
+        <v>25867.93060810574</v>
       </c>
       <c r="Z82" t="n">
-        <v>46812</v>
+        <v>14296</v>
       </c>
       <c r="AA82" t="n">
-        <v>1222.666666666667</v>
+        <v>703.9999999999999</v>
       </c>
       <c r="AB82" t="n">
-        <v>38951.7251264253</v>
+        <v>25867.93060810574</v>
       </c>
       <c r="AC82" t="n">
-        <v>46812</v>
+        <v>14296</v>
       </c>
       <c r="AD82" t="n">
-        <v>1222.666666666667</v>
+        <v>703.9999999999999</v>
       </c>
       <c r="AE82" t="n">
-        <v>76292.97909189835</v>
+        <v>35782.42930207303</v>
       </c>
       <c r="AF82" t="n">
-        <v>63259</v>
+        <v>24558</v>
       </c>
       <c r="AG82" t="n">
-        <v>1740</v>
+        <v>882.3333333333335</v>
       </c>
       <c r="AH82" t="n">
-        <v>54592.94102145085</v>
+        <v>34708.82060151737</v>
       </c>
       <c r="AI82" t="n">
-        <v>63323</v>
+        <v>22602</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1463.666666666667</v>
+        <v>794.3333333333331</v>
       </c>
       <c r="AK82" t="n">
-        <v>38951.7251264253</v>
+        <v>25867.93060810574</v>
       </c>
       <c r="AL82" t="n">
-        <v>46812</v>
+        <v>14296</v>
       </c>
       <c r="AM82" t="n">
-        <v>1222.666666666667</v>
+        <v>703.9999999999999</v>
       </c>
       <c r="AN82" t="n">
-        <v>73818.15507995112</v>
+        <v>35262.66992191445</v>
       </c>
       <c r="AO82" t="n">
-        <v>65484</v>
+        <v>21704</v>
       </c>
       <c r="AP82" t="n">
-        <v>1750.333333333333</v>
+        <v>854.3333333333333</v>
       </c>
     </row>
     <row r="83">
@@ -26237,22 +26237,22 @@
         <v>32.14285714285714</v>
       </c>
       <c r="J83" t="n">
-        <v>-4.464285714285721</v>
+        <v>-32.14285714285714</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>-4.464285714285721</v>
+        <v>33.03571428571428</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>-16.07142857142858</v>
@@ -26363,37 +26363,37 @@
         <v>8505.880947087317</v>
       </c>
       <c r="H84" t="n">
-        <v>1653.225764019755</v>
+        <v>1653.225764019756</v>
       </c>
       <c r="I84" t="n">
-        <v>2646.364643120326</v>
+        <v>2646.364643120327</v>
       </c>
       <c r="J84" t="n">
-        <v>1707.046221508719</v>
+        <v>1452.981828825064</v>
       </c>
       <c r="K84" t="n">
-        <v>1089</v>
+        <v>1916</v>
       </c>
       <c r="L84" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M84" t="n">
-        <v>2063.480883489999</v>
+        <v>1728.05392089483</v>
       </c>
       <c r="N84" t="n">
-        <v>441</v>
+        <v>1108</v>
       </c>
       <c r="O84" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="P84" t="n">
-        <v>1257.426086484218</v>
+        <v>1294.69740040517</v>
       </c>
       <c r="Q84" t="n">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="R84" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S84" t="n">
         <v>1383.165505393882</v>
@@ -26405,7 +26405,7 @@
         <v>59</v>
       </c>
       <c r="V84" t="n">
-        <v>1490.588283818622</v>
+        <v>1490.588283818623</v>
       </c>
       <c r="W84" t="n">
         <v>673</v>
@@ -26459,7 +26459,7 @@
         <v>59</v>
       </c>
       <c r="AN84" t="n">
-        <v>1828.515769341824</v>
+        <v>1828.515769341825</v>
       </c>
       <c r="AO84" t="n">
         <v>642</v>
@@ -26501,28 +26501,28 @@
         <v>391.0714285714286</v>
       </c>
       <c r="J85" t="n">
-        <v>-70.53571428571431</v>
+        <v>-385.7142857142857</v>
       </c>
       <c r="K85" t="n">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="L85" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>-70.53571428571431</v>
+        <v>411.6071428571428</v>
       </c>
       <c r="N85" t="n">
-        <v>255</v>
+        <v>348</v>
       </c>
       <c r="O85" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
         <v>-206.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R85" t="n">
         <v>11.5</v>
@@ -26633,28 +26633,28 @@
         <v>2103.558495002939</v>
       </c>
       <c r="J86" t="n">
-        <v>1068.126396237507</v>
+        <v>994.5906819517932</v>
       </c>
       <c r="K86" t="n">
-        <v>593</v>
+        <v>826</v>
       </c>
       <c r="L86" t="n">
-        <v>31.5</v>
+        <v>26</v>
       </c>
       <c r="M86" t="n">
-        <v>1639.87948265726</v>
+        <v>1950.450911228689</v>
       </c>
       <c r="N86" t="n">
-        <v>679</v>
+        <v>869</v>
       </c>
       <c r="O86" t="n">
-        <v>31.5</v>
+        <v>25</v>
       </c>
       <c r="P86" t="n">
         <v>1665.022339800117</v>
       </c>
       <c r="Q86" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="R86" t="n">
         <v>34</v>
@@ -26762,34 +26762,34 @@
         <v>15918.34972754205</v>
       </c>
       <c r="I87" t="n">
-        <v>39997.37170549561</v>
+        <v>39997.37170549562</v>
       </c>
       <c r="J87" t="n">
-        <v>17714.97153459659</v>
+        <v>16120.08496786356</v>
       </c>
       <c r="K87" t="n">
-        <v>29869</v>
+        <v>48782</v>
       </c>
       <c r="L87" t="n">
-        <v>584</v>
+        <v>498</v>
       </c>
       <c r="M87" t="n">
-        <v>21026.65800314435</v>
+        <v>19408.2236024468</v>
       </c>
       <c r="N87" t="n">
-        <v>22644</v>
+        <v>50449</v>
       </c>
       <c r="O87" t="n">
-        <v>584</v>
+        <v>493.5</v>
       </c>
       <c r="P87" t="n">
-        <v>8947.671538799394</v>
+        <v>9530.030290400544</v>
       </c>
       <c r="Q87" t="n">
-        <v>20200</v>
+        <v>20617</v>
       </c>
       <c r="R87" t="n">
-        <v>313</v>
+        <v>299.5</v>
       </c>
       <c r="S87" t="n">
         <v>9331.235491229272</v>
@@ -26897,22 +26897,22 @@
         <v>1573.214285714286</v>
       </c>
       <c r="J88" t="n">
-        <v>-317.8571428571428</v>
+        <v>-1542.857142857143</v>
       </c>
       <c r="K88" t="n">
-        <v>837</v>
+        <v>1055</v>
       </c>
       <c r="L88" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>-317.8571428571428</v>
+        <v>1688.392857142857</v>
       </c>
       <c r="N88" t="n">
-        <v>1278</v>
+        <v>1328</v>
       </c>
       <c r="O88" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>-813.392857142857</v>
@@ -27029,31 +27029,31 @@
         <v>23514.87992357437</v>
       </c>
       <c r="J89" t="n">
-        <v>11902.00837742505</v>
+        <v>10572.00837742505</v>
       </c>
       <c r="K89" t="n">
-        <v>5592</v>
+        <v>6643</v>
       </c>
       <c r="L89" t="n">
-        <v>192.6666666666667</v>
+        <v>147</v>
       </c>
       <c r="M89" t="n">
-        <v>18826.94664902998</v>
+        <v>22539.12522045855</v>
       </c>
       <c r="N89" t="n">
-        <v>8515</v>
+        <v>9269</v>
       </c>
       <c r="O89" t="n">
-        <v>192.6666666666667</v>
+        <v>139</v>
       </c>
       <c r="P89" t="n">
-        <v>18596.51807760141</v>
+        <v>18584.91093474426</v>
       </c>
       <c r="Q89" t="n">
-        <v>2156</v>
+        <v>2122</v>
       </c>
       <c r="R89" t="n">
-        <v>205</v>
+        <v>205.3333333333333</v>
       </c>
       <c r="S89" t="n">
         <v>14070.30085243974</v>
@@ -27161,28 +27161,28 @@
         <v>993.75</v>
       </c>
       <c r="J90" t="n">
-        <v>-340.1785714285714</v>
+        <v>-562.4999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>545</v>
+        <v>716</v>
       </c>
       <c r="L90" t="n">
-        <v>14.66666666666667</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>-340.1785714285714</v>
+        <v>541.9642857142857</v>
       </c>
       <c r="N90" t="n">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="O90" t="n">
-        <v>14.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>-326.7857142857143</v>
       </c>
       <c r="Q90" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="R90" t="n">
         <v>17.33333333333333</v>
@@ -27281,115 +27281,115 @@
         <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>6651</v>
+        <v>2846</v>
       </c>
       <c r="G91" t="n">
-        <v>386821.3897794679</v>
+        <v>182006.4464389181</v>
       </c>
       <c r="H91" t="n">
-        <v>106074.2877514216</v>
+        <v>48394.65930602937</v>
       </c>
       <c r="I91" t="n">
-        <v>157692.3637690315</v>
+        <v>66148.10882269134</v>
       </c>
       <c r="J91" t="n">
-        <v>87260.45186704054</v>
+        <v>34249.53080915934</v>
       </c>
       <c r="K91" t="n">
-        <v>117151</v>
+        <v>64823</v>
       </c>
       <c r="L91" t="n">
-        <v>1699.666666666667</v>
+        <v>619.6666666666666</v>
       </c>
       <c r="M91" t="n">
-        <v>96997.02406721772</v>
+        <v>36249.50996264357</v>
       </c>
       <c r="N91" t="n">
-        <v>93814</v>
+        <v>62194</v>
       </c>
       <c r="O91" t="n">
-        <v>1699.666666666667</v>
+        <v>601</v>
       </c>
       <c r="P91" t="n">
-        <v>36932.57684669199</v>
+        <v>27060.20333520178</v>
       </c>
       <c r="Q91" t="n">
-        <v>65021</v>
+        <v>20815</v>
       </c>
       <c r="R91" t="n">
-        <v>970.3333333333334</v>
+        <v>535.3333333333333</v>
       </c>
       <c r="S91" t="n">
-        <v>39406.95377984634</v>
+        <v>25659.53308108981</v>
       </c>
       <c r="T91" t="n">
-        <v>45719</v>
+        <v>13554</v>
       </c>
       <c r="U91" t="n">
-        <v>1270.333333333333</v>
+        <v>698</v>
       </c>
       <c r="V91" t="n">
-        <v>58396.23937141002</v>
+        <v>33376.691309042</v>
       </c>
       <c r="W91" t="n">
-        <v>59276</v>
+        <v>22015</v>
       </c>
       <c r="X91" t="n">
-        <v>1471.333333333333</v>
+        <v>783.6666666666667</v>
       </c>
       <c r="Y91" t="n">
-        <v>39406.95377984634</v>
+        <v>25659.53308108981</v>
       </c>
       <c r="Z91" t="n">
-        <v>45719</v>
+        <v>13554</v>
       </c>
       <c r="AA91" t="n">
-        <v>1270.333333333333</v>
+        <v>698</v>
       </c>
       <c r="AB91" t="n">
-        <v>39406.95377984634</v>
+        <v>25659.53308108981</v>
       </c>
       <c r="AC91" t="n">
-        <v>45719</v>
+        <v>13554</v>
       </c>
       <c r="AD91" t="n">
-        <v>1270.333333333333</v>
+        <v>698</v>
       </c>
       <c r="AE91" t="n">
-        <v>66877.2693714668</v>
+        <v>37041.78895656638</v>
       </c>
       <c r="AF91" t="n">
-        <v>71530</v>
+        <v>23540</v>
       </c>
       <c r="AG91" t="n">
-        <v>1707.666666666667</v>
+        <v>890.3333333333333</v>
       </c>
       <c r="AH91" t="n">
-        <v>55835.09187136313</v>
+        <v>33873.41568462876</v>
       </c>
       <c r="AI91" t="n">
-        <v>76488</v>
+        <v>21986</v>
       </c>
       <c r="AJ91" t="n">
-        <v>1456</v>
+        <v>784</v>
       </c>
       <c r="AK91" t="n">
-        <v>39406.95377984634</v>
+        <v>25659.53308108981</v>
       </c>
       <c r="AL91" t="n">
-        <v>45719</v>
+        <v>13554</v>
       </c>
       <c r="AM91" t="n">
-        <v>1270.333333333333</v>
+        <v>698</v>
       </c>
       <c r="AN91" t="n">
-        <v>64642.45025255034</v>
+        <v>36292.85049937644</v>
       </c>
       <c r="AO91" t="n">
-        <v>70868</v>
+        <v>21887</v>
       </c>
       <c r="AP91" t="n">
-        <v>1779.666666666667</v>
+        <v>862.3333333333333</v>
       </c>
     </row>
     <row r="92">
@@ -27425,22 +27425,22 @@
         <v>30.84112149532711</v>
       </c>
       <c r="J92" t="n">
-        <v>-20.5607476635514</v>
+        <v>-29.90654205607477</v>
       </c>
       <c r="K92" t="n">
+        <v>19</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
-      <c r="L92" t="n">
-        <v>2</v>
-      </c>
       <c r="M92" t="n">
-        <v>-20.5607476635514</v>
+        <v>30.84112149532711</v>
       </c>
       <c r="N92" t="n">
+        <v>29</v>
+      </c>
+      <c r="O92" t="n">
         <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>2</v>
       </c>
       <c r="P92" t="n">
         <v>-20.5607476635514</v>
@@ -27557,28 +27557,28 @@
         <v>2790.733860917706</v>
       </c>
       <c r="J93" t="n">
-        <v>1747.558180869845</v>
+        <v>1507.121742627401</v>
       </c>
       <c r="K93" t="n">
-        <v>1070</v>
+        <v>1915</v>
       </c>
       <c r="L93" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M93" t="n">
-        <v>2092.585063314547</v>
+        <v>1828.470742828254</v>
       </c>
       <c r="N93" t="n">
-        <v>430</v>
+        <v>1137</v>
       </c>
       <c r="O93" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="P93" t="n">
-        <v>1287.48113304158</v>
+        <v>1286.662395630395</v>
       </c>
       <c r="Q93" t="n">
-        <v>528</v>
+        <v>440</v>
       </c>
       <c r="R93" t="n">
         <v>57</v>
@@ -27689,28 +27689,28 @@
         <v>371.9626168224299</v>
       </c>
       <c r="J94" t="n">
-        <v>-206.5420560747664</v>
+        <v>-358.8785046728972</v>
       </c>
       <c r="K94" t="n">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="L94" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>-206.5420560747664</v>
+        <v>385.981308411215</v>
       </c>
       <c r="N94" t="n">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="O94" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
         <v>-258.8785046728972</v>
       </c>
       <c r="Q94" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R94" t="n">
         <v>11.5</v>
@@ -27821,28 +27821,28 @@
         <v>2223.539048232893</v>
       </c>
       <c r="J95" t="n">
-        <v>1095.584917821463</v>
+        <v>1098.583360189064</v>
       </c>
       <c r="K95" t="n">
-        <v>535</v>
+        <v>644</v>
       </c>
       <c r="L95" t="n">
-        <v>29.5</v>
+        <v>22</v>
       </c>
       <c r="M95" t="n">
-        <v>1657.941239660544</v>
+        <v>2026.788591685466</v>
       </c>
       <c r="N95" t="n">
-        <v>669</v>
+        <v>780</v>
       </c>
       <c r="O95" t="n">
-        <v>29.5</v>
+        <v>21</v>
       </c>
       <c r="P95" t="n">
         <v>1687.536255236868</v>
       </c>
       <c r="Q95" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R95" t="n">
         <v>29.5</v>
@@ -27953,31 +27953,31 @@
         <v>42222.02974351072</v>
       </c>
       <c r="J96" t="n">
-        <v>17471.30924024694</v>
+        <v>16529.54011951452</v>
       </c>
       <c r="K96" t="n">
-        <v>30300</v>
+        <v>48974</v>
       </c>
       <c r="L96" t="n">
-        <v>584.5</v>
+        <v>523.5</v>
       </c>
       <c r="M96" t="n">
-        <v>20901.12593874604</v>
+        <v>19778.58322155954</v>
       </c>
       <c r="N96" t="n">
-        <v>23107</v>
+        <v>50573</v>
       </c>
       <c r="O96" t="n">
-        <v>584.5</v>
+        <v>518.5</v>
       </c>
       <c r="P96" t="n">
-        <v>9343.743674060443</v>
+        <v>9462.79608033632</v>
       </c>
       <c r="Q96" t="n">
-        <v>20430</v>
+        <v>20796</v>
       </c>
       <c r="R96" t="n">
-        <v>329.5</v>
+        <v>304.5</v>
       </c>
       <c r="S96" t="n">
         <v>9514.2075342482</v>
@@ -28085,22 +28085,22 @@
         <v>1476.635514018692</v>
       </c>
       <c r="J97" t="n">
-        <v>-702.8037383177571</v>
+        <v>-1435.514018691589</v>
       </c>
       <c r="K97" t="n">
-        <v>837</v>
+        <v>1055</v>
       </c>
       <c r="L97" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>-702.8037383177571</v>
+        <v>1587.85046728972</v>
       </c>
       <c r="N97" t="n">
-        <v>1278</v>
+        <v>1328</v>
       </c>
       <c r="O97" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>-1015.88785046729</v>
@@ -28217,31 +28217,31 @@
         <v>24315.22182833817</v>
       </c>
       <c r="J98" t="n">
-        <v>12268.06047910624</v>
+        <v>11987.21935761091</v>
       </c>
       <c r="K98" t="n">
-        <v>5347</v>
+        <v>6182</v>
       </c>
       <c r="L98" t="n">
-        <v>199.3333333333333</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="M98" t="n">
-        <v>19493.34783542809</v>
+        <v>23685.48179181438</v>
       </c>
       <c r="N98" t="n">
-        <v>8385</v>
+        <v>8826</v>
       </c>
       <c r="O98" t="n">
-        <v>199.3333333333333</v>
+        <v>133.6666666666667</v>
       </c>
       <c r="P98" t="n">
-        <v>19441.94596626921</v>
+        <v>19427.92727468042</v>
       </c>
       <c r="Q98" t="n">
-        <v>2085</v>
+        <v>2051</v>
       </c>
       <c r="R98" t="n">
-        <v>197</v>
+        <v>197.3333333333333</v>
       </c>
       <c r="S98" t="n">
         <v>14816.5297024385</v>
@@ -28349,28 +28349,28 @@
         <v>923.3644859813086</v>
       </c>
       <c r="J99" t="n">
-        <v>-446.7289719626169</v>
+        <v>-390.6542056074767</v>
       </c>
       <c r="K99" t="n">
-        <v>513</v>
+        <v>628</v>
       </c>
       <c r="L99" t="n">
-        <v>15.66666666666667</v>
+        <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>-446.7289719626169</v>
+        <v>506.5420560747665</v>
       </c>
       <c r="N99" t="n">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="O99" t="n">
-        <v>15.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
         <v>-460.7476635514019</v>
       </c>
       <c r="Q99" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="R99" t="n">
         <v>15.66666666666667</v>
@@ -28469,115 +28469,115 @@
         <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>6702</v>
+        <v>2852</v>
       </c>
       <c r="G100" t="n">
-        <v>391885.7764240853</v>
+        <v>182279.3748561696</v>
       </c>
       <c r="H100" t="n">
-        <v>98884.00451993993</v>
+        <v>48630.41883332608</v>
       </c>
       <c r="I100" t="n">
-        <v>149873.284500443</v>
+        <v>69562.69591062903</v>
       </c>
       <c r="J100" t="n">
-        <v>86075.09145234243</v>
+        <v>34590.98871579774</v>
       </c>
       <c r="K100" t="n">
-        <v>117263</v>
+        <v>64837</v>
       </c>
       <c r="L100" t="n">
-        <v>1696</v>
+        <v>636.3333333333334</v>
       </c>
       <c r="M100" t="n">
-        <v>96339.55115890634</v>
+        <v>37048.5317101641</v>
       </c>
       <c r="N100" t="n">
-        <v>96862</v>
+        <v>61460</v>
       </c>
       <c r="O100" t="n">
-        <v>1696</v>
+        <v>620.3333333333333</v>
       </c>
       <c r="P100" t="n">
-        <v>36836.12377530572</v>
+        <v>27612.39331497316</v>
       </c>
       <c r="Q100" t="n">
-        <v>65729</v>
+        <v>20813</v>
       </c>
       <c r="R100" t="n">
-        <v>976</v>
+        <v>540.6666666666666</v>
       </c>
       <c r="S100" t="n">
-        <v>39507.30395523104</v>
+        <v>25969.01697226094</v>
       </c>
       <c r="T100" t="n">
-        <v>45844</v>
+        <v>13360</v>
       </c>
       <c r="U100" t="n">
-        <v>1273</v>
+        <v>696.3333333333334</v>
       </c>
       <c r="V100" t="n">
-        <v>54917.74595396574</v>
+        <v>32259.02330337691</v>
       </c>
       <c r="W100" t="n">
-        <v>60235</v>
+        <v>21599</v>
       </c>
       <c r="X100" t="n">
-        <v>1426.666666666667</v>
+        <v>780.6666666666666</v>
       </c>
       <c r="Y100" t="n">
-        <v>39507.30395523104</v>
+        <v>25969.01697226094</v>
       </c>
       <c r="Z100" t="n">
-        <v>45844</v>
+        <v>13360</v>
       </c>
       <c r="AA100" t="n">
-        <v>1273.333333333333</v>
+        <v>696.3333333333334</v>
       </c>
       <c r="AB100" t="n">
-        <v>39507.30395523104</v>
+        <v>25969.01697226094</v>
       </c>
       <c r="AC100" t="n">
-        <v>45844</v>
+        <v>13360</v>
       </c>
       <c r="AD100" t="n">
-        <v>1273</v>
+        <v>696.3333333333334</v>
       </c>
       <c r="AE100" t="n">
-        <v>64578.4439738638</v>
+        <v>36041.54279992038</v>
       </c>
       <c r="AF100" t="n">
-        <v>70591</v>
+        <v>23086</v>
       </c>
       <c r="AG100" t="n">
-        <v>1692.333333333333</v>
+        <v>881.3333333333333</v>
       </c>
       <c r="AH100" t="n">
-        <v>52750.83154056778</v>
+        <v>32763.48319642367</v>
       </c>
       <c r="AI100" t="n">
-        <v>77770</v>
+        <v>21585</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1412</v>
+        <v>783.3333333333333</v>
       </c>
       <c r="AK100" t="n">
-        <v>39507.30395523104</v>
+        <v>25969.01697226094</v>
       </c>
       <c r="AL100" t="n">
-        <v>45844</v>
+        <v>13360</v>
       </c>
       <c r="AM100" t="n">
-        <v>1273</v>
+        <v>696.3333333333334</v>
       </c>
       <c r="AN100" t="n">
-        <v>63685.54654687172</v>
+        <v>35418.53391161964</v>
       </c>
       <c r="AO100" t="n">
-        <v>73737</v>
+        <v>22043</v>
       </c>
       <c r="AP100" t="n">
-        <v>1802.333333333333</v>
+        <v>866.3333333333333</v>
       </c>
     </row>
   </sheetData>
